--- a/Data/qly/医联体医院坐标表.xlsx
+++ b/Data/qly/医联体医院坐标表.xlsx
@@ -56,12 +56,15 @@
     <t>所在区县</t>
   </si>
   <si>
+    <t>湖北省中医院</t>
+  </si>
+  <si>
+    <t>三级甲等</t>
+  </si>
+  <si>
     <t>武汉大学中南医院</t>
   </si>
   <si>
-    <t>三级甲等</t>
-  </si>
-  <si>
     <t>湖北省</t>
   </si>
   <si>
@@ -471,9 +474,6 @@
   </si>
   <si>
     <t>玉田县</t>
-  </si>
-  <si>
-    <t>湖北省中医院</t>
   </si>
   <si>
     <t>武汉大学</t>
@@ -2317,13 +2317,13 @@
   <sheetPr/>
   <dimension ref="A1:I230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="36.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2372,21 +2372,21 @@
         <v>50000</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>113.377809</v>
@@ -2395,27 +2395,27 @@
         <v>31.733422</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>1000</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>114.3659811</v>
@@ -2424,27 +2424,27 @@
         <v>30.53483567</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>1000</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>114.891198</v>
@@ -2453,27 +2453,27 @@
         <v>30.438866</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>1000</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>110.773599</v>
@@ -2482,27 +2482,27 @@
         <v>31.351334</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>1000</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>113.77092</v>
@@ -2511,27 +2511,27 @@
         <v>31.04201</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>1000</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>113.947787</v>
@@ -2540,27 +2540,27 @@
         <v>29.992524</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>1000</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>114.285549</v>
@@ -2569,27 +2569,27 @@
         <v>29.890488</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>1000</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>113.711479</v>
@@ -2598,27 +2598,27 @@
         <v>31.26961</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>1000</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>114.267258</v>
@@ -2627,27 +2627,27 @@
         <v>30.62278388</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>1000</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>114.326786</v>
@@ -2656,27 +2656,27 @@
         <v>30.63381291</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>20000</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>114.3225485</v>
@@ -2685,27 +2685,27 @@
         <v>30.55956698</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>1000</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14">
         <v>114.3468174</v>
@@ -2714,27 +2714,27 @@
         <v>30.52183163</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>1000</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <v>114.362659</v>
@@ -2743,27 +2743,27 @@
         <v>30.6097389</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>1000</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <v>114.370433</v>
@@ -2772,27 +2772,27 @@
         <v>30.53991089</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>15000</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17">
         <v>114.326146</v>
@@ -2801,27 +2801,27 @@
         <v>30.3593061</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>1000</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>114.3362306</v>
@@ -2830,27 +2830,27 @@
         <v>30.58372796</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>1000</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>116.3571699</v>
@@ -2859,27 +2859,27 @@
         <v>39.99794339</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>1000</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>114.3422277</v>
@@ -2888,27 +2888,27 @@
         <v>30.59503341</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>1000</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <v>113.350045</v>
@@ -2917,27 +2917,27 @@
         <v>30.08907922</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>1000</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22">
         <v>115.2734748</v>
@@ -2946,27 +2946,27 @@
         <v>30.4687627</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>1000</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23">
         <v>114.994125</v>
@@ -2975,27 +2975,27 @@
         <v>31.18003943</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>1000</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>114.2312664</v>
@@ -3004,27 +3004,27 @@
         <v>30.65552861</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>1000</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>115.5608222</v>
@@ -3033,27 +3033,27 @@
         <v>29.85536212</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>1000</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>115.434599</v>
@@ -3062,27 +3062,27 @@
         <v>30.21947306</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>1000</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27">
         <v>113.572147</v>
@@ -3091,27 +3091,27 @@
         <v>30.94716182</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>1000</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28">
         <v>114.8762018</v>
@@ -3120,27 +3120,27 @@
         <v>30.6477654</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>1000</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B29">
         <v>113.8276877</v>
@@ -3149,27 +3149,27 @@
         <v>31.61764859</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>1000</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B30">
         <v>111.8570496</v>
@@ -3178,27 +3178,27 @@
         <v>31.78082345</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>1000</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B31">
         <v>114.129527</v>
@@ -3207,27 +3207,27 @@
         <v>31.58113291</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>1000</v>
       </c>
       <c r="F31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B32">
         <v>115.6680195</v>
@@ -3236,27 +3236,27 @@
         <v>30.73283938</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>1000</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33">
         <v>115.418617</v>
@@ -3265,27 +3265,27 @@
         <v>30.79303889</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>1000</v>
       </c>
       <c r="F33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B34">
         <v>113.46164</v>
@@ -3294,27 +3294,27 @@
         <v>30.334391</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>1000</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B35">
         <v>115.9508929</v>
@@ -3323,27 +3323,27 @@
         <v>30.08262386</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>1000</v>
       </c>
       <c r="F35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B36">
         <v>114.9068994</v>
@@ -3352,27 +3352,27 @@
         <v>30.21340838</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>1000</v>
       </c>
       <c r="F36" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B37">
         <v>114.9629414</v>
@@ -3381,27 +3381,27 @@
         <v>30.17992401</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>1000</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B38">
         <v>114.6252222</v>
@@ -3410,27 +3410,27 @@
         <v>31.28686769</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>1000</v>
       </c>
       <c r="F38" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B39">
         <v>111.560414</v>
@@ -3439,27 +3439,27 @@
         <v>32.27711604</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>1000</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B40">
         <v>115.5964416</v>
@@ -3468,27 +3468,27 @@
         <v>29.87248589</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>1000</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B41">
         <v>113.9212851</v>
@@ -3497,27 +3497,27 @@
         <v>30.91887927</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>1000</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B42">
         <v>112.2270524</v>
@@ -3526,27 +3526,27 @@
         <v>31.04043044</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>1000</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B43">
         <v>109.7235851</v>
@@ -3555,27 +3555,27 @@
         <v>30.60839594</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <v>1000</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B44">
         <v>112.4359349</v>
@@ -3584,27 +3584,27 @@
         <v>29.71856954</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>1000</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B45">
         <v>112.24931</v>
@@ -3613,27 +3613,27 @@
         <v>32.09926403</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>1000</v>
       </c>
       <c r="F45" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B46">
         <v>112.7671464</v>
@@ -3642,27 +3642,27 @@
         <v>32.13530795</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>1000</v>
       </c>
       <c r="F46" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B47">
         <v>115.2183374</v>
@@ -3671,27 +3671,27 @@
         <v>29.84974195</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>1000</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I47" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B48">
         <v>115.2399145</v>
@@ -3700,27 +3700,27 @@
         <v>29.87686919</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>1000</v>
       </c>
       <c r="F48" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B49">
         <v>114.3317605</v>
@@ -3729,27 +3729,27 @@
         <v>29.83807254</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>1000</v>
       </c>
       <c r="F49" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B50">
         <v>114.0520899</v>
@@ -3758,27 +3758,27 @@
         <v>33.56978215</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>1000</v>
       </c>
       <c r="F50" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H50" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I50" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B51">
         <v>114.2708748</v>
@@ -3787,27 +3787,27 @@
         <v>30.4584497</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>1000</v>
       </c>
       <c r="F51" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B52">
         <v>87.58898498</v>
@@ -3816,27 +3816,27 @@
         <v>43.82111211</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>1000</v>
       </c>
       <c r="F52" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H52" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B53">
         <v>111.6736896</v>
@@ -3845,27 +3845,27 @@
         <v>32.38781507</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>1000</v>
       </c>
       <c r="F53" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B54">
         <v>114.2502227</v>
@@ -3874,27 +3874,27 @@
         <v>30.58149452</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>1000</v>
       </c>
       <c r="F54" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I54" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B55">
         <v>81.322878</v>
@@ -3903,27 +3903,27 @@
         <v>43.919497</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>1000</v>
       </c>
       <c r="F55" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H55" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I55" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B56">
         <v>115.685807</v>
@@ -3932,27 +3932,27 @@
         <v>32.18955261</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E56">
         <v>1000</v>
       </c>
       <c r="F56" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H56" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I56" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B57">
         <v>108.9226103</v>
@@ -3961,27 +3961,27 @@
         <v>30.284587</v>
       </c>
       <c r="D57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E57">
         <v>1000</v>
       </c>
       <c r="F57" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I57" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B58">
         <v>114.1401104</v>
@@ -3990,27 +3990,27 @@
         <v>30.40930167</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E58">
         <v>1000</v>
       </c>
       <c r="F58" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I58" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B59">
         <v>113.181396</v>
@@ -4019,27 +4019,27 @@
         <v>30.65536</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E59">
         <v>1000</v>
       </c>
       <c r="F59" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I59" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B60">
         <v>114.3254977</v>
@@ -4048,27 +4048,27 @@
         <v>29.86245336</v>
       </c>
       <c r="D60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E60">
         <v>1000</v>
       </c>
       <c r="F60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B61">
         <v>116.006621</v>
@@ -4077,27 +4077,27 @@
         <v>29.728529</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E61">
         <v>1000</v>
       </c>
       <c r="F61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G61" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H61" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I61" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B62">
         <v>115.0455329</v>
@@ -4106,27 +4106,27 @@
         <v>30.20520785</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>1000</v>
       </c>
       <c r="F62" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I62" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B63">
         <v>117.769399</v>
@@ -4135,27 +4135,27 @@
         <v>39.88916308</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E63">
         <v>1000</v>
       </c>
       <c r="F63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H63" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I63" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="B64">
         <v>114.316364</v>
@@ -4170,16 +4170,16 @@
         <v>50000</v>
       </c>
       <c r="F64" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="G64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -4193,22 +4193,22 @@
         <v>30.53483567</v>
       </c>
       <c r="D65" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E65">
         <v>1000</v>
       </c>
       <c r="F65" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4222,22 +4222,22 @@
         <v>30.518371</v>
       </c>
       <c r="D66" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <v>1000</v>
       </c>
       <c r="F66" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="G66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -4251,22 +4251,22 @@
         <v>30.4817799</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E67">
         <v>1000</v>
       </c>
       <c r="F67" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -4280,22 +4280,22 @@
         <v>30.524004</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E68">
         <v>1000</v>
       </c>
       <c r="F68" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="G68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -4309,22 +4309,22 @@
         <v>30.526255</v>
       </c>
       <c r="D69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E69">
         <v>1000</v>
       </c>
       <c r="F69" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="G69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -4338,22 +4338,22 @@
         <v>30.480612</v>
       </c>
       <c r="D70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E70">
         <v>1000</v>
       </c>
       <c r="F70" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -4367,22 +4367,22 @@
         <v>30.528856</v>
       </c>
       <c r="D71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E71">
         <v>1000</v>
       </c>
       <c r="F71" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="G71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I71" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -4396,22 +4396,22 @@
         <v>30.58372796</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E72">
         <v>1000</v>
       </c>
       <c r="F72" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="G72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -4425,22 +4425,22 @@
         <v>30.52183163</v>
       </c>
       <c r="D73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E73">
         <v>1000</v>
       </c>
       <c r="F73" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4454,22 +4454,22 @@
         <v>30.49187357</v>
       </c>
       <c r="D74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E74">
         <v>1000</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="G74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4483,22 +4483,22 @@
         <v>30.48518366</v>
       </c>
       <c r="D75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E75">
         <v>1000</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -4512,22 +4512,22 @@
         <v>30.38214401</v>
       </c>
       <c r="D76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E76">
         <v>1000</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="G76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -4541,22 +4541,22 @@
         <v>30.50816497</v>
       </c>
       <c r="D77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E77">
         <v>1000</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="G77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -4570,22 +4570,22 @@
         <v>30.52085299</v>
       </c>
       <c r="D78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E78">
         <v>1000</v>
       </c>
       <c r="F78" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I78" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4599,22 +4599,22 @@
         <v>30.40296688</v>
       </c>
       <c r="D79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E79">
         <v>1000</v>
       </c>
       <c r="F79" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="G79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4628,7 +4628,7 @@
         <v>31.17038534</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E80">
         <v>1000</v>
@@ -4637,10 +4637,10 @@
         <v>165</v>
       </c>
       <c r="G80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H80" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I80" t="s">
         <v>166</v>
@@ -4657,7 +4657,7 @@
         <v>32.01568116</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E81">
         <v>1000</v>
@@ -4666,10 +4666,10 @@
         <v>165</v>
       </c>
       <c r="G81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H81" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I81" t="s">
         <v>168</v>
@@ -4686,7 +4686,7 @@
         <v>30.70067477</v>
       </c>
       <c r="D82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E82">
         <v>1000</v>
@@ -4695,10 +4695,10 @@
         <v>165</v>
       </c>
       <c r="G82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H82" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I82" t="s">
         <v>170</v>
@@ -4715,7 +4715,7 @@
         <v>29.51225898</v>
       </c>
       <c r="D83" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E83">
         <v>1000</v>
@@ -4724,10 +4724,10 @@
         <v>165</v>
       </c>
       <c r="G83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I83" t="s">
         <v>172</v>
@@ -4744,7 +4744,7 @@
         <v>29.51225898</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E84">
         <v>1000</v>
@@ -4753,10 +4753,10 @@
         <v>165</v>
       </c>
       <c r="G84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I84" t="s">
         <v>172</v>
@@ -4773,7 +4773,7 @@
         <v>30.93105599</v>
       </c>
       <c r="D85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E85">
         <v>1000</v>
@@ -4782,13 +4782,13 @@
         <v>165</v>
       </c>
       <c r="G85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I85" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4802,7 +4802,7 @@
         <v>28.69298889</v>
       </c>
       <c r="D86" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E86">
         <v>1000</v>
@@ -4811,7 +4811,7 @@
         <v>165</v>
       </c>
       <c r="G86" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H86" t="s">
         <v>176</v>
@@ -4831,7 +4831,7 @@
         <v>36.29210248</v>
       </c>
       <c r="D87" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E87">
         <v>1000</v>
@@ -4860,7 +4860,7 @@
         <v>26.57085757</v>
       </c>
       <c r="D88" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E88">
         <v>1000</v>
@@ -4889,7 +4889,7 @@
         <v>36.07206683</v>
       </c>
       <c r="D89" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E89">
         <v>1000</v>
@@ -4918,7 +4918,7 @@
         <v>28.20332636</v>
       </c>
       <c r="D90" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E90">
         <v>1000</v>
@@ -4947,7 +4947,7 @@
         <v>29.16150613</v>
       </c>
       <c r="D91" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E91">
         <v>1000</v>
@@ -4976,7 +4976,7 @@
         <v>23.04572102</v>
       </c>
       <c r="D92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E92">
         <v>1000</v>
@@ -5005,7 +5005,7 @@
         <v>25.28350037</v>
       </c>
       <c r="D93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E93">
         <v>1000</v>
@@ -5034,7 +5034,7 @@
         <v>40.46523603</v>
       </c>
       <c r="D94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E94">
         <v>1000</v>
@@ -5043,10 +5043,10 @@
         <v>165</v>
       </c>
       <c r="G94" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H94" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I94" t="s">
         <v>206</v>
@@ -5063,7 +5063,7 @@
         <v>31.1840889</v>
       </c>
       <c r="D95" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E95">
         <v>1000</v>
@@ -5072,13 +5072,13 @@
         <v>165</v>
       </c>
       <c r="G95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H95" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I95" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5092,7 +5092,7 @@
         <v>30.42610021</v>
       </c>
       <c r="D96" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E96">
         <v>1000</v>
@@ -5101,10 +5101,10 @@
         <v>165</v>
       </c>
       <c r="G96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I96" t="s">
         <v>209</v>
@@ -5121,7 +5121,7 @@
         <v>32.64133241</v>
       </c>
       <c r="D97" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E97">
         <v>1000</v>
@@ -5130,7 +5130,7 @@
         <v>165</v>
       </c>
       <c r="G97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H97" t="s">
         <v>211</v>
@@ -5150,7 +5150,7 @@
         <v>30.45550489</v>
       </c>
       <c r="D98" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E98">
         <v>1000</v>
@@ -5159,13 +5159,13 @@
         <v>165</v>
       </c>
       <c r="G98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H98" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -5179,7 +5179,7 @@
         <v>30.64480121</v>
       </c>
       <c r="D99" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E99">
         <v>1000</v>
@@ -5188,13 +5188,13 @@
         <v>165</v>
       </c>
       <c r="G99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I99" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -5208,7 +5208,7 @@
         <v>30.64480121</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E100">
         <v>1000</v>
@@ -5217,13 +5217,13 @@
         <v>165</v>
       </c>
       <c r="G100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I100" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -5237,7 +5237,7 @@
         <v>30.64480121</v>
       </c>
       <c r="D101" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E101">
         <v>1000</v>
@@ -5246,13 +5246,13 @@
         <v>165</v>
       </c>
       <c r="G101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I101" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -5266,7 +5266,7 @@
         <v>30.30338567</v>
       </c>
       <c r="D102" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E102">
         <v>1000</v>
@@ -5275,10 +5275,10 @@
         <v>165</v>
       </c>
       <c r="G102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H102" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I102" t="s">
         <v>218</v>
@@ -5286,7 +5286,7 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B103">
         <v>114.994125</v>
@@ -5295,7 +5295,7 @@
         <v>31.18003943</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E103">
         <v>1000</v>
@@ -5304,13 +5304,13 @@
         <v>165</v>
       </c>
       <c r="G103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I103" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -5324,7 +5324,7 @@
         <v>29.84761958</v>
       </c>
       <c r="D104" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E104">
         <v>1000</v>
@@ -5333,13 +5333,13 @@
         <v>165</v>
       </c>
       <c r="G104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -5353,7 +5353,7 @@
         <v>43.80000413</v>
       </c>
       <c r="D105" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E105">
         <v>1000</v>
@@ -5362,10 +5362,10 @@
         <v>165</v>
       </c>
       <c r="G105" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H105" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I105" t="s">
         <v>221</v>
@@ -5382,7 +5382,7 @@
         <v>40.78296723</v>
       </c>
       <c r="D106" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E106">
         <v>1000</v>
@@ -5411,7 +5411,7 @@
         <v>40.63907728</v>
       </c>
       <c r="D107" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E107">
         <v>1000</v>
@@ -5420,10 +5420,10 @@
         <v>165</v>
       </c>
       <c r="G107" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H107" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I107" t="s">
         <v>227</v>
@@ -5440,7 +5440,7 @@
         <v>29.33104138</v>
       </c>
       <c r="D108" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E108">
         <v>1000</v>
@@ -5469,7 +5469,7 @@
         <v>38.49619909</v>
       </c>
       <c r="D109" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E109">
         <v>1000</v>
@@ -5498,7 +5498,7 @@
         <v>34.72639992</v>
       </c>
       <c r="D110" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E110">
         <v>1000</v>
@@ -5507,7 +5507,7 @@
         <v>165</v>
       </c>
       <c r="G110" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H110" t="s">
         <v>237</v>
@@ -5527,7 +5527,7 @@
         <v>34.03522633</v>
       </c>
       <c r="D111" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E111">
         <v>1000</v>
@@ -5536,7 +5536,7 @@
         <v>165</v>
       </c>
       <c r="G111" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H111" t="s">
         <v>240</v>
@@ -5556,7 +5556,7 @@
         <v>36.10519689</v>
       </c>
       <c r="D112" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E112">
         <v>1000</v>
@@ -5565,7 +5565,7 @@
         <v>165</v>
       </c>
       <c r="G112" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H112" t="s">
         <v>243</v>
@@ -5585,7 +5585,7 @@
         <v>30.42610021</v>
       </c>
       <c r="D113" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E113">
         <v>1000</v>
@@ -5594,10 +5594,10 @@
         <v>165</v>
       </c>
       <c r="G113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I113" t="s">
         <v>209</v>
@@ -5614,7 +5614,7 @@
         <v>30.50162438</v>
       </c>
       <c r="D114" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E114">
         <v>1000</v>
@@ -5623,13 +5623,13 @@
         <v>165</v>
       </c>
       <c r="G114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -5643,7 +5643,7 @@
         <v>32.13441934</v>
       </c>
       <c r="D115" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E115">
         <v>1000</v>
@@ -5652,13 +5652,13 @@
         <v>165</v>
       </c>
       <c r="G115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H115" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I115" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -5672,7 +5672,7 @@
         <v>30.59029693</v>
       </c>
       <c r="D116" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E116">
         <v>1000</v>
@@ -5681,13 +5681,13 @@
         <v>165</v>
       </c>
       <c r="G116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -5701,7 +5701,7 @@
         <v>31.61399628</v>
       </c>
       <c r="D117" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E117">
         <v>1000</v>
@@ -5710,13 +5710,13 @@
         <v>165</v>
       </c>
       <c r="G117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H117" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I117" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -5730,7 +5730,7 @@
         <v>32.66128772</v>
       </c>
       <c r="D118" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E118">
         <v>1000</v>
@@ -5739,7 +5739,7 @@
         <v>165</v>
       </c>
       <c r="G118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H118" t="s">
         <v>211</v>
@@ -5759,7 +5759,7 @@
         <v>32.22653726</v>
       </c>
       <c r="D119" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E119">
         <v>1000</v>
@@ -5768,7 +5768,7 @@
         <v>165</v>
       </c>
       <c r="G119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H119" t="s">
         <v>211</v>
@@ -5788,7 +5788,7 @@
         <v>30.35797523</v>
       </c>
       <c r="D120" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E120">
         <v>1000</v>
@@ -5797,13 +5797,13 @@
         <v>165</v>
       </c>
       <c r="G120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5817,7 +5817,7 @@
         <v>18.2474879</v>
       </c>
       <c r="D121" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E121">
         <v>1000</v>
@@ -5846,7 +5846,7 @@
         <v>30.63191849</v>
       </c>
       <c r="D122" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E122">
         <v>1000</v>
@@ -5855,13 +5855,13 @@
         <v>165</v>
       </c>
       <c r="G122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I122" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -5875,7 +5875,7 @@
         <v>30.59262755</v>
       </c>
       <c r="D123" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E123">
         <v>1000</v>
@@ -5884,13 +5884,13 @@
         <v>165</v>
       </c>
       <c r="G123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -5904,7 +5904,7 @@
         <v>30.37876497</v>
       </c>
       <c r="D124" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E124">
         <v>1000</v>
@@ -5913,13 +5913,13 @@
         <v>165</v>
       </c>
       <c r="G124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I124" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -5933,7 +5933,7 @@
         <v>27.53081571</v>
       </c>
       <c r="D125" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E125">
         <v>1000</v>
@@ -5962,7 +5962,7 @@
         <v>29.72818737</v>
       </c>
       <c r="D126" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E126">
         <v>1000</v>
@@ -5971,13 +5971,13 @@
         <v>165</v>
       </c>
       <c r="G126" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H126" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I126" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -5991,7 +5991,7 @@
         <v>33.81110124</v>
       </c>
       <c r="D127" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E127">
         <v>1000</v>
@@ -6000,10 +6000,10 @@
         <v>165</v>
       </c>
       <c r="G127" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H127" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I127" t="s">
         <v>266</v>
@@ -6020,7 +6020,7 @@
         <v>32.99087057</v>
       </c>
       <c r="D128" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E128">
         <v>1000</v>
@@ -6029,7 +6029,7 @@
         <v>165</v>
       </c>
       <c r="G128" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H128" t="s">
         <v>268</v>
@@ -6049,7 +6049,7 @@
         <v>26.58148734</v>
       </c>
       <c r="D129" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E129">
         <v>1000</v>
@@ -6078,7 +6078,7 @@
         <v>44.60872904</v>
       </c>
       <c r="D130" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E130">
         <v>1000</v>
@@ -6087,7 +6087,7 @@
         <v>165</v>
       </c>
       <c r="G130" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H130" t="s">
         <v>274</v>
@@ -6116,13 +6116,13 @@
         <v>165</v>
       </c>
       <c r="G131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -6136,7 +6136,7 @@
         <v>30.70972533</v>
       </c>
       <c r="D132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E132">
         <v>1000</v>
@@ -6145,10 +6145,10 @@
         <v>165</v>
       </c>
       <c r="G132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H132" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I132" t="s">
         <v>170</v>
@@ -6165,7 +6165,7 @@
         <v>31.05072924</v>
       </c>
       <c r="D133" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E133">
         <v>1000</v>
@@ -6174,10 +6174,10 @@
         <v>165</v>
       </c>
       <c r="G133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H133" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I133" t="s">
         <v>279</v>
@@ -6194,7 +6194,7 @@
         <v>30.59281601</v>
       </c>
       <c r="D134" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E134">
         <v>1000</v>
@@ -6203,13 +6203,13 @@
         <v>165</v>
       </c>
       <c r="G134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -6223,7 +6223,7 @@
         <v>39.15348514</v>
       </c>
       <c r="D135" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E135">
         <v>1000</v>
@@ -6252,7 +6252,7 @@
         <v>22.56394729</v>
       </c>
       <c r="D136" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E136">
         <v>1000</v>
@@ -6281,7 +6281,7 @@
         <v>23.02502485</v>
       </c>
       <c r="D137" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E137">
         <v>1000</v>
@@ -6310,7 +6310,7 @@
         <v>32.6112441</v>
       </c>
       <c r="D138" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E138">
         <v>1000</v>
@@ -6319,7 +6319,7 @@
         <v>165</v>
       </c>
       <c r="G138" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H138" t="s">
         <v>291</v>
@@ -6339,7 +6339,7 @@
         <v>35.90873962</v>
       </c>
       <c r="D139" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E139">
         <v>1000</v>
@@ -6348,7 +6348,7 @@
         <v>165</v>
       </c>
       <c r="G139" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H139" t="s">
         <v>294</v>
@@ -6368,7 +6368,7 @@
         <v>24.55675764</v>
       </c>
       <c r="D140" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E140">
         <v>1000</v>
@@ -6397,7 +6397,7 @@
         <v>25.86686903</v>
       </c>
       <c r="D141" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E141">
         <v>1000</v>
@@ -6406,7 +6406,7 @@
         <v>165</v>
       </c>
       <c r="G141" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H141" t="s">
         <v>301</v>
@@ -6426,7 +6426,7 @@
         <v>31.7385122</v>
       </c>
       <c r="D142" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E142">
         <v>1000</v>
@@ -6455,7 +6455,7 @@
         <v>27.90934398</v>
       </c>
       <c r="D143" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E143">
         <v>1000</v>
@@ -6484,7 +6484,7 @@
         <v>32.99917427</v>
       </c>
       <c r="D144" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E144">
         <v>1000</v>
@@ -6493,7 +6493,7 @@
         <v>165</v>
       </c>
       <c r="G144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H144" t="s">
         <v>211</v>
@@ -6513,7 +6513,7 @@
         <v>33.74646806</v>
       </c>
       <c r="D145" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E145">
         <v>1000</v>
@@ -6522,7 +6522,7 @@
         <v>165</v>
       </c>
       <c r="G145" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H145" t="s">
         <v>313</v>
@@ -6542,7 +6542,7 @@
         <v>31.29275739</v>
       </c>
       <c r="D146" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E146">
         <v>1000</v>
@@ -6571,7 +6571,7 @@
         <v>31.73408171</v>
       </c>
       <c r="D147" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E147">
         <v>1000</v>
@@ -6609,13 +6609,13 @@
         <v>165</v>
       </c>
       <c r="G148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I148" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -6629,7 +6629,7 @@
         <v>22.7007885</v>
       </c>
       <c r="D149" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E149">
         <v>1000</v>
@@ -6658,7 +6658,7 @@
         <v>22.80621751</v>
       </c>
       <c r="D150" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E150">
         <v>1000</v>
@@ -6687,7 +6687,7 @@
         <v>29.61283231</v>
       </c>
       <c r="D151" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E151">
         <v>1000</v>
@@ -6716,7 +6716,7 @@
         <v>30.65511985</v>
       </c>
       <c r="D152" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E152">
         <v>1000</v>
@@ -6725,13 +6725,13 @@
         <v>320</v>
       </c>
       <c r="G152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I152" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -6745,7 +6745,7 @@
         <v>30.59846674</v>
       </c>
       <c r="D153" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E153">
         <v>1000</v>
@@ -6754,13 +6754,13 @@
         <v>320</v>
       </c>
       <c r="G153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I153" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -6774,7 +6774,7 @@
         <v>31.02885188</v>
       </c>
       <c r="D154" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E154">
         <v>1000</v>
@@ -6783,10 +6783,10 @@
         <v>320</v>
       </c>
       <c r="G154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H154" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I154" t="s">
         <v>331</v>
@@ -6803,7 +6803,7 @@
         <v>30.49777209</v>
       </c>
       <c r="D155" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E155">
         <v>1000</v>
@@ -6812,13 +6812,13 @@
         <v>320</v>
       </c>
       <c r="G155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I155" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -6832,7 +6832,7 @@
         <v>30.64652488</v>
       </c>
       <c r="D156" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E156">
         <v>1000</v>
@@ -6841,10 +6841,10 @@
         <v>333</v>
       </c>
       <c r="G156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H156" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I156" t="s">
         <v>334</v>
@@ -6861,7 +6861,7 @@
         <v>31.11985288</v>
       </c>
       <c r="D157" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E157">
         <v>1000</v>
@@ -6870,10 +6870,10 @@
         <v>333</v>
       </c>
       <c r="G157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H157" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I157" t="s">
         <v>166</v>
@@ -6890,7 +6890,7 @@
         <v>30.36719294</v>
       </c>
       <c r="D158" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E158">
         <v>1000</v>
@@ -6899,13 +6899,13 @@
         <v>333</v>
       </c>
       <c r="G158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I158" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -6919,7 +6919,7 @@
         <v>30.31942143</v>
       </c>
       <c r="D159" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E159">
         <v>1000</v>
@@ -6928,10 +6928,10 @@
         <v>333</v>
       </c>
       <c r="G159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I159" t="s">
         <v>338</v>
@@ -6948,7 +6948,7 @@
         <v>19.30399788</v>
       </c>
       <c r="D160" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E160">
         <v>1000</v>
@@ -6977,7 +6977,7 @@
         <v>30.31942143</v>
       </c>
       <c r="D161" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E161">
         <v>1000</v>
@@ -6986,10 +6986,10 @@
         <v>333</v>
       </c>
       <c r="G161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I161" t="s">
         <v>338</v>
@@ -7006,7 +7006,7 @@
         <v>30.16302403</v>
       </c>
       <c r="D162" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E162">
         <v>1000</v>
@@ -7015,10 +7015,10 @@
         <v>333</v>
       </c>
       <c r="G162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H162" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I162" t="s">
         <v>343</v>
@@ -7035,7 +7035,7 @@
         <v>30.4037768</v>
       </c>
       <c r="D163" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E163">
         <v>1000</v>
@@ -7044,7 +7044,7 @@
         <v>333</v>
       </c>
       <c r="G163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H163" t="s">
         <v>345</v>
@@ -7064,7 +7064,7 @@
         <v>30.71870278</v>
       </c>
       <c r="D164" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E164">
         <v>1000</v>
@@ -7073,10 +7073,10 @@
         <v>333</v>
       </c>
       <c r="G164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H164" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I164" t="s">
         <v>348</v>
@@ -7093,7 +7093,7 @@
         <v>32.36719017</v>
       </c>
       <c r="D165" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E165">
         <v>1000</v>
@@ -7102,10 +7102,10 @@
         <v>333</v>
       </c>
       <c r="G165" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H165" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I165" t="s">
         <v>350</v>
@@ -7122,7 +7122,7 @@
         <v>32.17340878</v>
       </c>
       <c r="D166" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E166">
         <v>1000</v>
@@ -7131,13 +7131,13 @@
         <v>333</v>
       </c>
       <c r="G166" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H166" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I166" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -7151,7 +7151,7 @@
         <v>32.12685195</v>
       </c>
       <c r="D167" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E167">
         <v>1000</v>
@@ -7160,10 +7160,10 @@
         <v>333</v>
       </c>
       <c r="G167" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H167" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I167" t="s">
         <v>353</v>
@@ -7180,7 +7180,7 @@
         <v>30.62536363</v>
       </c>
       <c r="D168" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E168">
         <v>20000</v>
@@ -7189,10 +7189,10 @@
         <v>333</v>
       </c>
       <c r="G168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H168" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I168" t="s">
         <v>355</v>
@@ -7209,7 +7209,7 @@
         <v>30.05254124</v>
       </c>
       <c r="D169" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E169">
         <v>1000</v>
@@ -7218,10 +7218,10 @@
         <v>333</v>
       </c>
       <c r="G169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H169" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I169" t="s">
         <v>357</v>
@@ -7238,7 +7238,7 @@
         <v>30.94800587</v>
       </c>
       <c r="D170" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E170">
         <v>1000</v>
@@ -7247,18 +7247,18 @@
         <v>333</v>
       </c>
       <c r="G170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H170" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I170" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B171">
         <v>115.9508929</v>
@@ -7267,7 +7267,7 @@
         <v>30.08262386</v>
       </c>
       <c r="D171" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E171">
         <v>1000</v>
@@ -7276,13 +7276,13 @@
         <v>333</v>
       </c>
       <c r="G171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H171" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I171" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -7296,7 +7296,7 @@
         <v>31.18861285</v>
       </c>
       <c r="D172" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E172">
         <v>1000</v>
@@ -7305,13 +7305,13 @@
         <v>333</v>
       </c>
       <c r="G172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H172" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I172" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -7325,7 +7325,7 @@
         <v>30.66310489</v>
       </c>
       <c r="D173" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E173">
         <v>15000</v>
@@ -7334,10 +7334,10 @@
         <v>333</v>
       </c>
       <c r="G173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H173" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I173" t="s">
         <v>355</v>
@@ -7354,7 +7354,7 @@
         <v>30.78902699</v>
       </c>
       <c r="D174" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E174">
         <v>1000</v>
@@ -7363,13 +7363,13 @@
         <v>333</v>
       </c>
       <c r="G174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H174" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I174" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -7383,7 +7383,7 @@
         <v>31.1717226</v>
       </c>
       <c r="D175" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E175">
         <v>1000</v>
@@ -7392,13 +7392,13 @@
         <v>333</v>
       </c>
       <c r="G175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H175" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I175" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -7412,7 +7412,7 @@
         <v>29.84153399</v>
       </c>
       <c r="D176" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E176">
         <v>1000</v>
@@ -7421,10 +7421,10 @@
         <v>333</v>
       </c>
       <c r="G176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H176" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I176" t="s">
         <v>364</v>
@@ -7441,7 +7441,7 @@
         <v>40.47830889</v>
       </c>
       <c r="D177" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E177">
         <v>15000</v>
@@ -7450,10 +7450,10 @@
         <v>333</v>
       </c>
       <c r="G177" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H177" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I177" t="s">
         <v>206</v>
@@ -7470,7 +7470,7 @@
         <v>30.58697042</v>
       </c>
       <c r="D178" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E178">
         <v>15000</v>
@@ -7479,13 +7479,13 @@
         <v>333</v>
       </c>
       <c r="G178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H178" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -7499,7 +7499,7 @@
         <v>30.54728093</v>
       </c>
       <c r="D179" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E179">
         <v>1000</v>
@@ -7508,13 +7508,13 @@
         <v>333</v>
       </c>
       <c r="G179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H179" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -7528,7 +7528,7 @@
         <v>31.25009196</v>
       </c>
       <c r="D180" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E180">
         <v>1000</v>
@@ -7537,10 +7537,10 @@
         <v>333</v>
       </c>
       <c r="G180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H180" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I180" t="s">
         <v>369</v>
@@ -7557,7 +7557,7 @@
         <v>31.04085139</v>
       </c>
       <c r="D181" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E181">
         <v>1000</v>
@@ -7566,13 +7566,13 @@
         <v>333</v>
       </c>
       <c r="G181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H181" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I181" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -7586,7 +7586,7 @@
         <v>29.73083191</v>
       </c>
       <c r="D182" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E182">
         <v>1000</v>
@@ -7595,10 +7595,10 @@
         <v>333</v>
       </c>
       <c r="G182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H182" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I182" t="s">
         <v>372</v>
@@ -7615,7 +7615,7 @@
         <v>32.13893105</v>
       </c>
       <c r="D183" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E183">
         <v>1000</v>
@@ -7624,10 +7624,10 @@
         <v>333</v>
       </c>
       <c r="G183" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H183" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I183" t="s">
         <v>374</v>
@@ -7644,7 +7644,7 @@
         <v>39.73656511</v>
       </c>
       <c r="D184" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E184">
         <v>1000</v>
@@ -7653,10 +7653,10 @@
         <v>333</v>
       </c>
       <c r="G184" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H184" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I184" t="s">
         <v>376</v>
@@ -7673,7 +7673,7 @@
         <v>30.44911592</v>
       </c>
       <c r="D185" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E185">
         <v>1000</v>
@@ -7682,13 +7682,13 @@
         <v>333</v>
       </c>
       <c r="G185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H185" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I185" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -7702,7 +7702,7 @@
         <v>29.72454899</v>
       </c>
       <c r="D186" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E186">
         <v>1000</v>
@@ -7711,13 +7711,13 @@
         <v>333</v>
       </c>
       <c r="G186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H186" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I186" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -7731,7 +7731,7 @@
         <v>30.36434561</v>
       </c>
       <c r="D187" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E187">
         <v>20000</v>
@@ -7740,13 +7740,13 @@
         <v>333</v>
       </c>
       <c r="G187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H187" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I187" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -7760,7 +7760,7 @@
         <v>31.61836867</v>
       </c>
       <c r="D188" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E188">
         <v>1000</v>
@@ -7769,18 +7769,18 @@
         <v>333</v>
       </c>
       <c r="G188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H188" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I188" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B189">
         <v>111.560414</v>
@@ -7789,7 +7789,7 @@
         <v>32.27711604</v>
       </c>
       <c r="D189" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E189">
         <v>1000</v>
@@ -7798,18 +7798,18 @@
         <v>333</v>
       </c>
       <c r="G189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H189" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I189" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B190">
         <v>113.8276877</v>
@@ -7818,7 +7818,7 @@
         <v>31.61764859</v>
       </c>
       <c r="D190" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E190">
         <v>1000</v>
@@ -7827,13 +7827,13 @@
         <v>333</v>
       </c>
       <c r="G190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H190" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I190" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -7856,13 +7856,13 @@
         <v>333</v>
       </c>
       <c r="G191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H191" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I191" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -7876,7 +7876,7 @@
         <v>29.82669111</v>
       </c>
       <c r="D192" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E192">
         <v>1000</v>
@@ -7885,13 +7885,13 @@
         <v>333</v>
       </c>
       <c r="G192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H192" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I192" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -7905,7 +7905,7 @@
         <v>30.48525563</v>
       </c>
       <c r="D193" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E193">
         <v>1000</v>
@@ -7914,13 +7914,13 @@
         <v>333</v>
       </c>
       <c r="G193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H193" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I193" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -7934,7 +7934,7 @@
         <v>29.97635352</v>
       </c>
       <c r="D194" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E194">
         <v>1000</v>
@@ -7943,13 +7943,13 @@
         <v>333</v>
       </c>
       <c r="G194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H194" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I194" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -7963,7 +7963,7 @@
         <v>30.60431886</v>
       </c>
       <c r="D195" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E195">
         <v>1000</v>
@@ -7972,13 +7972,13 @@
         <v>333</v>
       </c>
       <c r="G195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H195" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I195" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -7992,7 +7992,7 @@
         <v>29.86391369</v>
       </c>
       <c r="D196" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E196">
         <v>1000</v>
@@ -8001,13 +8001,13 @@
         <v>333</v>
       </c>
       <c r="G196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H196" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I196" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -8021,7 +8021,7 @@
         <v>29.83756133</v>
       </c>
       <c r="D197" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E197">
         <v>1000</v>
@@ -8030,13 +8030,13 @@
         <v>333</v>
       </c>
       <c r="G197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H197" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I197" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -8050,7 +8050,7 @@
         <v>30.6429756</v>
       </c>
       <c r="D198" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E198">
         <v>1000</v>
@@ -8059,10 +8059,10 @@
         <v>333</v>
       </c>
       <c r="G198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H198" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I198" t="s">
         <v>355</v>
@@ -8079,7 +8079,7 @@
         <v>30.07668022</v>
       </c>
       <c r="D199" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E199">
         <v>1000</v>
@@ -8088,10 +8088,10 @@
         <v>333</v>
       </c>
       <c r="G199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H199" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I199" t="s">
         <v>391</v>
@@ -8108,7 +8108,7 @@
         <v>30.79346148</v>
       </c>
       <c r="D200" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E200">
         <v>1000</v>
@@ -8117,13 +8117,13 @@
         <v>333</v>
       </c>
       <c r="G200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H200" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I200" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -8137,7 +8137,7 @@
         <v>29.72995242</v>
       </c>
       <c r="D201" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E201">
         <v>1000</v>
@@ -8146,13 +8146,13 @@
         <v>333</v>
       </c>
       <c r="G201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H201" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I201" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -8166,7 +8166,7 @@
         <v>30.36881098</v>
       </c>
       <c r="D202" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E202">
         <v>1000</v>
@@ -8175,10 +8175,10 @@
         <v>333</v>
       </c>
       <c r="G202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H202" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I202" t="s">
         <v>395</v>
@@ -8195,7 +8195,7 @@
         <v>30.63619692</v>
       </c>
       <c r="D203" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E203">
         <v>1000</v>
@@ -8204,13 +8204,13 @@
         <v>333</v>
       </c>
       <c r="G203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I203" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -8224,7 +8224,7 @@
         <v>30.4817799</v>
       </c>
       <c r="D204" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E204">
         <v>1000</v>
@@ -8233,18 +8233,18 @@
         <v>333</v>
       </c>
       <c r="G204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H204" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I204" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B205">
         <v>114.362659</v>
@@ -8253,7 +8253,7 @@
         <v>30.6097389</v>
       </c>
       <c r="D205" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E205">
         <v>1000</v>
@@ -8262,18 +8262,18 @@
         <v>333</v>
       </c>
       <c r="G205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H205" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I205" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B206">
         <v>116.3571699</v>
@@ -8282,7 +8282,7 @@
         <v>39.99794339</v>
       </c>
       <c r="D206" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E206">
         <v>1000</v>
@@ -8291,13 +8291,13 @@
         <v>333</v>
       </c>
       <c r="G206" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H206" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I206" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -8311,7 +8311,7 @@
         <v>30.55007194</v>
       </c>
       <c r="D207" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E207">
         <v>1000</v>
@@ -8320,13 +8320,13 @@
         <v>333</v>
       </c>
       <c r="G207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H207" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I207" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -8340,7 +8340,7 @@
         <v>30.40296688</v>
       </c>
       <c r="D208" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E208">
         <v>1000</v>
@@ -8349,13 +8349,13 @@
         <v>333</v>
       </c>
       <c r="G208" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H208" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I208" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -8369,7 +8369,7 @@
         <v>30.49347551</v>
       </c>
       <c r="D209" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E209">
         <v>1000</v>
@@ -8378,13 +8378,13 @@
         <v>333</v>
       </c>
       <c r="G209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H209" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I209" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -8398,7 +8398,7 @@
         <v>30.434476</v>
       </c>
       <c r="D210" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E210">
         <v>1000</v>
@@ -8407,13 +8407,13 @@
         <v>333</v>
       </c>
       <c r="G210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H210" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I210" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -8427,7 +8427,7 @@
         <v>30.30809338</v>
       </c>
       <c r="D211" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E211">
         <v>1000</v>
@@ -8436,13 +8436,13 @@
         <v>333</v>
       </c>
       <c r="G211" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H211" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I211" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -8456,7 +8456,7 @@
         <v>30.39430456</v>
       </c>
       <c r="D212" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E212">
         <v>1000</v>
@@ -8465,13 +8465,13 @@
         <v>333</v>
       </c>
       <c r="G212" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H212" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I212" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -8485,7 +8485,7 @@
         <v>30.46749045</v>
       </c>
       <c r="D213" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E213">
         <v>1000</v>
@@ -8494,13 +8494,13 @@
         <v>333</v>
       </c>
       <c r="G213" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H213" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I213" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -8514,7 +8514,7 @@
         <v>30.44918029</v>
       </c>
       <c r="D214" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E214">
         <v>1000</v>
@@ -8523,13 +8523,13 @@
         <v>333</v>
       </c>
       <c r="G214" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H214" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I214" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -8543,7 +8543,7 @@
         <v>30.45716105</v>
       </c>
       <c r="D215" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E215">
         <v>1000</v>
@@ -8552,13 +8552,13 @@
         <v>333</v>
       </c>
       <c r="G215" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H215" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I215" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -8572,7 +8572,7 @@
         <v>30.65182494</v>
       </c>
       <c r="D216" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E216">
         <v>1000</v>
@@ -8581,10 +8581,10 @@
         <v>333</v>
       </c>
       <c r="G216" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H216" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I216" t="s">
         <v>334</v>
@@ -8601,7 +8601,7 @@
         <v>31.71462534</v>
       </c>
       <c r="D217" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E217">
         <v>1000</v>
@@ -8610,13 +8610,13 @@
         <v>333</v>
       </c>
       <c r="G217" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H217" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I217" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -8630,7 +8630,7 @@
         <v>31.70684782</v>
       </c>
       <c r="D218" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E218">
         <v>1000</v>
@@ -8639,10 +8639,10 @@
         <v>333</v>
       </c>
       <c r="G218" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H218" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I218" t="s">
         <v>410</v>
@@ -8659,7 +8659,7 @@
         <v>30.55279174</v>
       </c>
       <c r="D219" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E219">
         <v>1000</v>
@@ -8668,10 +8668,10 @@
         <v>333</v>
       </c>
       <c r="G219" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H219" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I219" t="s">
         <v>412</v>
@@ -8688,7 +8688,7 @@
         <v>30.57750786</v>
       </c>
       <c r="D220" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E220">
         <v>1000</v>
@@ -8697,13 +8697,13 @@
         <v>333</v>
       </c>
       <c r="G220" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H220" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I220" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -8717,7 +8717,7 @@
         <v>30.44273291</v>
       </c>
       <c r="D221" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E221">
         <v>1000</v>
@@ -8726,13 +8726,13 @@
         <v>333</v>
       </c>
       <c r="G221" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H221" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I221" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -8746,7 +8746,7 @@
         <v>30.18205224</v>
       </c>
       <c r="D222" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E222">
         <v>1000</v>
@@ -8755,10 +8755,10 @@
         <v>333</v>
       </c>
       <c r="G222" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H222" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I222" t="s">
         <v>416</v>
@@ -8775,7 +8775,7 @@
         <v>29.68902482</v>
       </c>
       <c r="D223" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E223">
         <v>1000</v>
@@ -8784,10 +8784,10 @@
         <v>333</v>
       </c>
       <c r="G223" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H223" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I223" t="s">
         <v>418</v>
@@ -8804,7 +8804,7 @@
         <v>30.28214664</v>
       </c>
       <c r="D224" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E224">
         <v>1000</v>
@@ -8813,10 +8813,10 @@
         <v>333</v>
       </c>
       <c r="G224" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H224" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I224" t="s">
         <v>218</v>
@@ -8833,7 +8833,7 @@
         <v>45.61202328</v>
       </c>
       <c r="D225" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E225">
         <v>1000</v>
@@ -8862,7 +8862,7 @@
         <v>29.35351351</v>
       </c>
       <c r="D226" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E226">
         <v>1000</v>
@@ -8891,7 +8891,7 @@
         <v>43.85822815</v>
       </c>
       <c r="D227" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E227">
         <v>1000</v>
@@ -8900,10 +8900,10 @@
         <v>333</v>
       </c>
       <c r="G227" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H227" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I227" t="s">
         <v>426</v>
@@ -8920,7 +8920,7 @@
         <v>28.91371696</v>
       </c>
       <c r="D228" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E228">
         <v>1000</v>
@@ -8949,7 +8949,7 @@
         <v>31.17914216</v>
       </c>
       <c r="D229" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E229">
         <v>1000</v>
@@ -8987,13 +8987,13 @@
         <v>333</v>
       </c>
       <c r="G230" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H230" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I230" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Data/qly/医联体医院坐标表.xlsx
+++ b/Data/qly/医联体医院坐标表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10475" windowHeight="6552"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,424 +56,424 @@
     <t>所在区县</t>
   </si>
   <si>
+    <t>武汉大学中南医院</t>
+  </si>
+  <si>
+    <t>三级甲等</t>
+  </si>
+  <si>
+    <t>湖北省</t>
+  </si>
+  <si>
+    <t>武汉市</t>
+  </si>
+  <si>
+    <t>武昌区</t>
+  </si>
+  <si>
+    <t>武汉大学中南医院随州医院</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>随州市</t>
+  </si>
+  <si>
+    <t>曾都区</t>
+  </si>
+  <si>
+    <t>武汉大学中南医院新洲院区</t>
+  </si>
+  <si>
+    <t>武汉大学中南医院黄冈妇女儿童医院</t>
+  </si>
+  <si>
+    <t>黄冈市</t>
+  </si>
+  <si>
+    <t>黄州区</t>
+  </si>
+  <si>
+    <t>武汉大学中南医院兴山医院</t>
+  </si>
+  <si>
+    <t>宜昌市</t>
+  </si>
+  <si>
+    <t>兴山县</t>
+  </si>
+  <si>
+    <t>武汉大学中南医院云梦医院</t>
+  </si>
+  <si>
+    <t>孝感市</t>
+  </si>
+  <si>
+    <t>云梦县</t>
+  </si>
+  <si>
+    <t>武汉大学中南医院咸宁医院</t>
+  </si>
+  <si>
+    <t>咸宁市</t>
+  </si>
+  <si>
+    <t>嘉鱼县</t>
+  </si>
+  <si>
+    <t>武汉大学中南医院嘉鱼医院</t>
+  </si>
+  <si>
+    <t>咸安区</t>
+  </si>
+  <si>
+    <t>武汉大学中南医院安陆普爱医院</t>
+  </si>
+  <si>
+    <t>安陆市</t>
+  </si>
+  <si>
+    <t>武汉市优抚医院</t>
+  </si>
+  <si>
+    <t>江汉区</t>
+  </si>
+  <si>
+    <t>武汉市汉口医院</t>
+  </si>
+  <si>
+    <t>二级甲等</t>
+  </si>
+  <si>
+    <t>江岸区</t>
+  </si>
+  <si>
+    <t>武汉市武昌医院</t>
+  </si>
+  <si>
+    <t>武汉科技大学医院</t>
+  </si>
+  <si>
+    <t>洪山区</t>
+  </si>
+  <si>
+    <t>武汉理工大学医院</t>
+  </si>
+  <si>
+    <t>武汉大学医院</t>
+  </si>
+  <si>
+    <t>二级乙等</t>
+  </si>
+  <si>
+    <t>江夏区纸坊街社区卫生服务中心</t>
+  </si>
+  <si>
+    <t>江夏区</t>
+  </si>
+  <si>
+    <t>湖北大学医院</t>
+  </si>
+  <si>
+    <t>中国地质大学医院</t>
+  </si>
+  <si>
+    <t>北京市</t>
+  </si>
+  <si>
+    <t>海淀区</t>
+  </si>
+  <si>
+    <t>武昌区水果湖社区卫生服务中心</t>
+  </si>
+  <si>
+    <t>洪湖市第二人民医院</t>
+  </si>
+  <si>
+    <t>荆州市</t>
+  </si>
+  <si>
+    <t>洪湖市</t>
+  </si>
+  <si>
+    <t>浠水县人民医院</t>
+  </si>
+  <si>
+    <t>浠水县</t>
+  </si>
+  <si>
+    <t>麻城市人民医院</t>
+  </si>
+  <si>
+    <t>麻城市</t>
+  </si>
+  <si>
+    <t>湖北航天医院</t>
+  </si>
+  <si>
+    <t>东西湖区</t>
+  </si>
+  <si>
+    <t>武穴市中医医院</t>
+  </si>
+  <si>
+    <t>武穴市</t>
+  </si>
+  <si>
+    <t>蕲春县人民医院</t>
+  </si>
+  <si>
+    <t>蕲春县</t>
+  </si>
+  <si>
+    <t>应城市人民医院</t>
+  </si>
+  <si>
+    <t>应城市</t>
+  </si>
+  <si>
+    <t>团风县人民医院</t>
+  </si>
+  <si>
+    <t>团风县</t>
+  </si>
+  <si>
+    <t>广水市第一人民医院</t>
+  </si>
+  <si>
+    <t>广水市</t>
+  </si>
+  <si>
+    <t>南漳县人民医院</t>
+  </si>
+  <si>
+    <t>襄阳市</t>
+  </si>
+  <si>
+    <t>南漳县</t>
+  </si>
+  <si>
+    <t>大悟县人民医院</t>
+  </si>
+  <si>
+    <t>大悟县</t>
+  </si>
+  <si>
+    <t>英山县人民医院</t>
+  </si>
+  <si>
+    <t>英山县</t>
+  </si>
+  <si>
+    <t>罗田县人民医院</t>
+  </si>
+  <si>
+    <t>罗田县</t>
+  </si>
+  <si>
+    <t>仙桃市第一人民医院</t>
+  </si>
+  <si>
+    <t>仙桃市</t>
+  </si>
+  <si>
+    <t>黄梅县人民医院</t>
+  </si>
+  <si>
+    <t>黄梅县</t>
+  </si>
+  <si>
+    <t>黄石市第四医院</t>
+  </si>
+  <si>
+    <t>黄石市</t>
+  </si>
+  <si>
+    <t>铁山区</t>
+  </si>
+  <si>
+    <t>黄石市第五医院</t>
+  </si>
+  <si>
+    <t>下陆区</t>
+  </si>
+  <si>
+    <t>红安县人民医院</t>
+  </si>
+  <si>
+    <t>红安县</t>
+  </si>
+  <si>
+    <t>谷城县人民医院</t>
+  </si>
+  <si>
+    <t>谷城县</t>
+  </si>
+  <si>
+    <t>武穴市第一人民医院</t>
+  </si>
+  <si>
+    <t>孝感市第一人民医院</t>
+  </si>
+  <si>
+    <t>孝南区</t>
+  </si>
+  <si>
+    <t>荆门市中医医院</t>
+  </si>
+  <si>
+    <t>荆门市</t>
+  </si>
+  <si>
+    <t>掇刀区</t>
+  </si>
+  <si>
+    <t>建始县人民医院</t>
+  </si>
+  <si>
+    <t>恩施土家族苗族自治州</t>
+  </si>
+  <si>
+    <t>建始县</t>
+  </si>
+  <si>
+    <t>石首市人民医院</t>
+  </si>
+  <si>
+    <t>石首市</t>
+  </si>
+  <si>
+    <t>襄州区人民医院</t>
+  </si>
+  <si>
+    <t>襄州区</t>
+  </si>
+  <si>
+    <t>枣阳市第一人民医院</t>
+  </si>
+  <si>
+    <t>枣阳市</t>
+  </si>
+  <si>
+    <t>阳新县中医医院</t>
+  </si>
+  <si>
+    <t>阳新县</t>
+  </si>
+  <si>
+    <t>阳新县第三人民医院</t>
+  </si>
+  <si>
+    <t>咸宁市中医院</t>
+  </si>
+  <si>
+    <t>漯河市第六人民医院</t>
+  </si>
+  <si>
+    <t>河南省</t>
+  </si>
+  <si>
+    <t>漯河市</t>
+  </si>
+  <si>
+    <t>召陵区</t>
+  </si>
+  <si>
+    <t>洪山区青菱街社会卫生服务中心在校医院</t>
+  </si>
+  <si>
+    <t>新疆维吾尔自治区第三人民医院</t>
+  </si>
+  <si>
+    <t>新疆维吾尔自治区</t>
+  </si>
+  <si>
+    <t>乌鲁木齐市</t>
+  </si>
+  <si>
+    <t>沙依巴克区</t>
+  </si>
+  <si>
+    <t>老河口市第一医院</t>
+  </si>
+  <si>
+    <t>老河口市</t>
+  </si>
+  <si>
+    <t>武汉仁爱医院</t>
+  </si>
+  <si>
+    <t>硚口区</t>
+  </si>
+  <si>
+    <t>新疆兵团第四师医院</t>
+  </si>
+  <si>
+    <t>伊犁哈萨克自治州</t>
+  </si>
+  <si>
+    <t>伊宁市</t>
+  </si>
+  <si>
+    <t>信阳市人民医院</t>
+  </si>
+  <si>
+    <t>信阳市</t>
+  </si>
+  <si>
+    <t>固始县</t>
+  </si>
+  <si>
+    <t>利川市民族中医院</t>
+  </si>
+  <si>
+    <t>利川市</t>
+  </si>
+  <si>
+    <t>华中科技大学同济医学院附属同济医院</t>
+  </si>
+  <si>
+    <t>蔡甸区</t>
+  </si>
+  <si>
+    <t>天门市第一人民医院</t>
+  </si>
+  <si>
+    <t>天门市</t>
+  </si>
+  <si>
+    <t>咸宁市中心医院</t>
+  </si>
+  <si>
+    <t>九江学院附属医院</t>
+  </si>
+  <si>
+    <t>江西省</t>
+  </si>
+  <si>
+    <t>九江市</t>
+  </si>
+  <si>
+    <t>浔阳区</t>
+  </si>
+  <si>
+    <t>黄石市中心医院</t>
+  </si>
+  <si>
+    <t>玉田县中医医院</t>
+  </si>
+  <si>
+    <t>河北省</t>
+  </si>
+  <si>
+    <t>唐山市</t>
+  </si>
+  <si>
+    <t>玉田县</t>
+  </si>
+  <si>
     <t>湖北省中医院</t>
-  </si>
-  <si>
-    <t>三级甲等</t>
-  </si>
-  <si>
-    <t>武汉大学中南医院</t>
-  </si>
-  <si>
-    <t>湖北省</t>
-  </si>
-  <si>
-    <t>武汉市</t>
-  </si>
-  <si>
-    <t>武昌区</t>
-  </si>
-  <si>
-    <t>武汉大学中南医院随州医院</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>随州市</t>
-  </si>
-  <si>
-    <t>曾都区</t>
-  </si>
-  <si>
-    <t>武汉大学中南医院新洲院区</t>
-  </si>
-  <si>
-    <t>武汉大学中南医院黄冈妇女儿童医院</t>
-  </si>
-  <si>
-    <t>黄冈市</t>
-  </si>
-  <si>
-    <t>黄州区</t>
-  </si>
-  <si>
-    <t>武汉大学中南医院兴山医院</t>
-  </si>
-  <si>
-    <t>宜昌市</t>
-  </si>
-  <si>
-    <t>兴山县</t>
-  </si>
-  <si>
-    <t>武汉大学中南医院云梦医院</t>
-  </si>
-  <si>
-    <t>孝感市</t>
-  </si>
-  <si>
-    <t>云梦县</t>
-  </si>
-  <si>
-    <t>武汉大学中南医院咸宁医院</t>
-  </si>
-  <si>
-    <t>咸宁市</t>
-  </si>
-  <si>
-    <t>嘉鱼县</t>
-  </si>
-  <si>
-    <t>武汉大学中南医院嘉鱼医院</t>
-  </si>
-  <si>
-    <t>咸安区</t>
-  </si>
-  <si>
-    <t>武汉大学中南医院安陆普爱医院</t>
-  </si>
-  <si>
-    <t>安陆市</t>
-  </si>
-  <si>
-    <t>武汉市优抚医院</t>
-  </si>
-  <si>
-    <t>江汉区</t>
-  </si>
-  <si>
-    <t>武汉市汉口医院</t>
-  </si>
-  <si>
-    <t>二级甲等</t>
-  </si>
-  <si>
-    <t>江岸区</t>
-  </si>
-  <si>
-    <t>武汉市武昌医院</t>
-  </si>
-  <si>
-    <t>武汉科技大学医院</t>
-  </si>
-  <si>
-    <t>洪山区</t>
-  </si>
-  <si>
-    <t>武汉理工大学医院</t>
-  </si>
-  <si>
-    <t>武汉大学医院</t>
-  </si>
-  <si>
-    <t>二级乙等</t>
-  </si>
-  <si>
-    <t>江夏区纸坊街社区卫生服务中心</t>
-  </si>
-  <si>
-    <t>江夏区</t>
-  </si>
-  <si>
-    <t>湖北大学医院</t>
-  </si>
-  <si>
-    <t>中国地质大学医院</t>
-  </si>
-  <si>
-    <t>北京市</t>
-  </si>
-  <si>
-    <t>海淀区</t>
-  </si>
-  <si>
-    <t>武昌区水果湖社区卫生服务中心</t>
-  </si>
-  <si>
-    <t>洪湖市第二人民医院</t>
-  </si>
-  <si>
-    <t>荆州市</t>
-  </si>
-  <si>
-    <t>洪湖市</t>
-  </si>
-  <si>
-    <t>浠水县人民医院</t>
-  </si>
-  <si>
-    <t>浠水县</t>
-  </si>
-  <si>
-    <t>麻城市人民医院</t>
-  </si>
-  <si>
-    <t>麻城市</t>
-  </si>
-  <si>
-    <t>湖北航天医院</t>
-  </si>
-  <si>
-    <t>东西湖区</t>
-  </si>
-  <si>
-    <t>武穴市中医医院</t>
-  </si>
-  <si>
-    <t>武穴市</t>
-  </si>
-  <si>
-    <t>蕲春县人民医院</t>
-  </si>
-  <si>
-    <t>蕲春县</t>
-  </si>
-  <si>
-    <t>应城市人民医院</t>
-  </si>
-  <si>
-    <t>应城市</t>
-  </si>
-  <si>
-    <t>团风县人民医院</t>
-  </si>
-  <si>
-    <t>团风县</t>
-  </si>
-  <si>
-    <t>广水市第一人民医院</t>
-  </si>
-  <si>
-    <t>广水市</t>
-  </si>
-  <si>
-    <t>南漳县人民医院</t>
-  </si>
-  <si>
-    <t>襄阳市</t>
-  </si>
-  <si>
-    <t>南漳县</t>
-  </si>
-  <si>
-    <t>大悟县人民医院</t>
-  </si>
-  <si>
-    <t>大悟县</t>
-  </si>
-  <si>
-    <t>英山县人民医院</t>
-  </si>
-  <si>
-    <t>英山县</t>
-  </si>
-  <si>
-    <t>罗田县人民医院</t>
-  </si>
-  <si>
-    <t>罗田县</t>
-  </si>
-  <si>
-    <t>仙桃市第一人民医院</t>
-  </si>
-  <si>
-    <t>仙桃市</t>
-  </si>
-  <si>
-    <t>黄梅县人民医院</t>
-  </si>
-  <si>
-    <t>黄梅县</t>
-  </si>
-  <si>
-    <t>黄石市第四医院</t>
-  </si>
-  <si>
-    <t>黄石市</t>
-  </si>
-  <si>
-    <t>铁山区</t>
-  </si>
-  <si>
-    <t>黄石市第五医院</t>
-  </si>
-  <si>
-    <t>下陆区</t>
-  </si>
-  <si>
-    <t>红安县人民医院</t>
-  </si>
-  <si>
-    <t>红安县</t>
-  </si>
-  <si>
-    <t>谷城县人民医院</t>
-  </si>
-  <si>
-    <t>谷城县</t>
-  </si>
-  <si>
-    <t>武穴市第一人民医院</t>
-  </si>
-  <si>
-    <t>孝感市第一人民医院</t>
-  </si>
-  <si>
-    <t>孝南区</t>
-  </si>
-  <si>
-    <t>荆门市中医医院</t>
-  </si>
-  <si>
-    <t>荆门市</t>
-  </si>
-  <si>
-    <t>掇刀区</t>
-  </si>
-  <si>
-    <t>建始县人民医院</t>
-  </si>
-  <si>
-    <t>恩施土家族苗族自治州</t>
-  </si>
-  <si>
-    <t>建始县</t>
-  </si>
-  <si>
-    <t>石首市人民医院</t>
-  </si>
-  <si>
-    <t>石首市</t>
-  </si>
-  <si>
-    <t>襄州区人民医院</t>
-  </si>
-  <si>
-    <t>襄州区</t>
-  </si>
-  <si>
-    <t>枣阳市第一人民医院</t>
-  </si>
-  <si>
-    <t>枣阳市</t>
-  </si>
-  <si>
-    <t>阳新县中医医院</t>
-  </si>
-  <si>
-    <t>阳新县</t>
-  </si>
-  <si>
-    <t>阳新县第三人民医院</t>
-  </si>
-  <si>
-    <t>咸宁市中医院</t>
-  </si>
-  <si>
-    <t>漯河市第六人民医院</t>
-  </si>
-  <si>
-    <t>河南省</t>
-  </si>
-  <si>
-    <t>漯河市</t>
-  </si>
-  <si>
-    <t>召陵区</t>
-  </si>
-  <si>
-    <t>洪山区青菱街社会卫生服务中心在校医院</t>
-  </si>
-  <si>
-    <t>新疆维吾尔自治区第三人民医院</t>
-  </si>
-  <si>
-    <t>新疆维吾尔自治区</t>
-  </si>
-  <si>
-    <t>乌鲁木齐市</t>
-  </si>
-  <si>
-    <t>沙依巴克区</t>
-  </si>
-  <si>
-    <t>老河口市第一医院</t>
-  </si>
-  <si>
-    <t>老河口市</t>
-  </si>
-  <si>
-    <t>武汉仁爱医院</t>
-  </si>
-  <si>
-    <t>硚口区</t>
-  </si>
-  <si>
-    <t>新疆兵团第四师医院</t>
-  </si>
-  <si>
-    <t>伊犁哈萨克自治州</t>
-  </si>
-  <si>
-    <t>伊宁市</t>
-  </si>
-  <si>
-    <t>信阳市人民医院</t>
-  </si>
-  <si>
-    <t>信阳市</t>
-  </si>
-  <si>
-    <t>固始县</t>
-  </si>
-  <si>
-    <t>利川市民族中医院</t>
-  </si>
-  <si>
-    <t>利川市</t>
-  </si>
-  <si>
-    <t>华中科技大学同济医学院附属同济医院</t>
-  </si>
-  <si>
-    <t>蔡甸区</t>
-  </si>
-  <si>
-    <t>天门市第一人民医院</t>
-  </si>
-  <si>
-    <t>天门市</t>
-  </si>
-  <si>
-    <t>咸宁市中心医院</t>
-  </si>
-  <si>
-    <t>九江学院附属医院</t>
-  </si>
-  <si>
-    <t>江西省</t>
-  </si>
-  <si>
-    <t>九江市</t>
-  </si>
-  <si>
-    <t>浔阳区</t>
-  </si>
-  <si>
-    <t>黄石市中心医院</t>
-  </si>
-  <si>
-    <t>玉田县中医医院</t>
-  </si>
-  <si>
-    <t>河北省</t>
-  </si>
-  <si>
-    <t>唐山市</t>
-  </si>
-  <si>
-    <t>玉田县</t>
   </si>
   <si>
     <t>武汉大学</t>
@@ -2317,13 +2317,14 @@
   <sheetPr/>
   <dimension ref="A1:I230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="36.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="33.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2372,21 +2373,21 @@
         <v>50000</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>113.377809</v>
@@ -2395,27 +2396,27 @@
         <v>31.733422</v>
       </c>
       <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
-        <v>1000</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>114.3659811</v>
@@ -2424,27 +2425,27 @@
         <v>30.53483567</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>1000</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>114.891198</v>
@@ -2453,27 +2454,27 @@
         <v>30.438866</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>1000</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
         <v>21</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>110.773599</v>
@@ -2482,27 +2483,27 @@
         <v>31.351334</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>1000</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
         <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>113.77092</v>
@@ -2511,27 +2512,27 @@
         <v>31.04201</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>1000</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
         <v>27</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>113.947787</v>
@@ -2540,27 +2541,27 @@
         <v>29.992524</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>1000</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
         <v>30</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>114.285549</v>
@@ -2569,27 +2570,27 @@
         <v>29.890488</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>1000</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>113.711479</v>
@@ -2598,27 +2599,27 @@
         <v>31.26961</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>1000</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>114.267258</v>
@@ -2627,27 +2628,27 @@
         <v>30.62278388</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>1000</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
         <v>12</v>
       </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>114.326786</v>
@@ -2656,27 +2657,27 @@
         <v>30.63381291</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12">
         <v>20000</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
         <v>12</v>
       </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13">
         <v>114.3225485</v>
@@ -2685,27 +2686,27 @@
         <v>30.55956698</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>1000</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
         <v>12</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>13</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <v>114.3468174</v>
@@ -2714,27 +2715,27 @@
         <v>30.52183163</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>1000</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
         <v>12</v>
       </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15">
         <v>114.362659</v>
@@ -2743,27 +2744,27 @@
         <v>30.6097389</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>1000</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
         <v>12</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>13</v>
-      </c>
-      <c r="I15" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16">
         <v>114.370433</v>
@@ -2772,27 +2773,27 @@
         <v>30.53991089</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>15000</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
         <v>12</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>13</v>
-      </c>
-      <c r="I16" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>114.326146</v>
@@ -2801,27 +2802,27 @@
         <v>30.3593061</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>1000</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
         <v>12</v>
       </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18">
         <v>114.3362306</v>
@@ -2830,27 +2831,27 @@
         <v>30.58372796</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>1000</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
         <v>12</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>13</v>
-      </c>
-      <c r="I18" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19">
         <v>116.3571699</v>
@@ -2859,27 +2860,27 @@
         <v>39.99794339</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>1000</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" t="s">
         <v>51</v>
-      </c>
-      <c r="H19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20">
         <v>114.3422277</v>
@@ -2888,27 +2889,27 @@
         <v>30.59503341</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>1000</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
         <v>12</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>13</v>
-      </c>
-      <c r="I20" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21">
         <v>113.350045</v>
@@ -2917,27 +2918,27 @@
         <v>30.08907922</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>1000</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" t="s">
         <v>55</v>
-      </c>
-      <c r="I21" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>115.2734748</v>
@@ -2946,27 +2947,27 @@
         <v>30.4687627</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>1000</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23">
         <v>114.994125</v>
@@ -2975,27 +2976,27 @@
         <v>31.18003943</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>1000</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24">
         <v>114.2312664</v>
@@ -3004,27 +3005,27 @@
         <v>30.65552861</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>1000</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
         <v>12</v>
       </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
       <c r="I24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>115.5608222</v>
@@ -3033,27 +3034,27 @@
         <v>29.85536212</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>1000</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>115.434599</v>
@@ -3062,27 +3063,27 @@
         <v>30.21947306</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>1000</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>113.572147</v>
@@ -3091,27 +3092,27 @@
         <v>30.94716182</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>1000</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28">
         <v>114.8762018</v>
@@ -3120,27 +3121,27 @@
         <v>30.6477654</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>1000</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29">
         <v>113.8276877</v>
@@ -3149,27 +3150,27 @@
         <v>31.61764859</v>
       </c>
       <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>1000</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
         <v>16</v>
       </c>
-      <c r="E29">
-        <v>1000</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" t="s">
-        <v>17</v>
-      </c>
       <c r="I29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30">
         <v>111.8570496</v>
@@ -3178,27 +3179,27 @@
         <v>31.78082345</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>1000</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" t="s">
         <v>74</v>
-      </c>
-      <c r="I30" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31">
         <v>114.129527</v>
@@ -3207,27 +3208,27 @@
         <v>31.58113291</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>1000</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32">
         <v>115.6680195</v>
@@ -3236,27 +3237,27 @@
         <v>30.73283938</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>1000</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33">
         <v>115.418617</v>
@@ -3265,27 +3266,27 @@
         <v>30.79303889</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>1000</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34">
         <v>113.46164</v>
@@ -3294,27 +3295,27 @@
         <v>30.334391</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>1000</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35">
         <v>115.9508929</v>
@@ -3323,27 +3324,27 @@
         <v>30.08262386</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>1000</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36">
         <v>114.9068994</v>
@@ -3352,27 +3353,27 @@
         <v>30.21340838</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>1000</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" t="s">
         <v>87</v>
-      </c>
-      <c r="I36" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B37">
         <v>114.9629414</v>
@@ -3381,27 +3382,27 @@
         <v>30.17992401</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>1000</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B38">
         <v>114.6252222</v>
@@ -3410,27 +3411,27 @@
         <v>31.28686769</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>1000</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39">
         <v>111.560414</v>
@@ -3439,27 +3440,27 @@
         <v>32.27711604</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>1000</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B40">
         <v>115.5964416</v>
@@ -3468,27 +3469,27 @@
         <v>29.87248589</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>1000</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41">
         <v>113.9212851</v>
@@ -3497,27 +3498,27 @@
         <v>30.91887927</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>1000</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B42">
         <v>112.2270524</v>
@@ -3526,27 +3527,27 @@
         <v>31.04043044</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>1000</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H42" t="s">
+        <v>98</v>
+      </c>
+      <c r="I42" t="s">
         <v>99</v>
-      </c>
-      <c r="I42" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43">
         <v>109.7235851</v>
@@ -3555,27 +3556,27 @@
         <v>30.60839594</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>1000</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I43" t="s">
         <v>102</v>
-      </c>
-      <c r="I43" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B44">
         <v>112.4359349</v>
@@ -3584,27 +3585,27 @@
         <v>29.71856954</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>1000</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B45">
         <v>112.24931</v>
@@ -3613,27 +3614,27 @@
         <v>32.09926403</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>1000</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B46">
         <v>112.7671464</v>
@@ -3642,27 +3643,27 @@
         <v>32.13530795</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>1000</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B47">
         <v>115.2183374</v>
@@ -3671,27 +3672,27 @@
         <v>29.84974195</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>1000</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B48">
         <v>115.2399145</v>
@@ -3700,27 +3701,27 @@
         <v>29.87686919</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>1000</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B49">
         <v>114.3317605</v>
@@ -3729,27 +3730,27 @@
         <v>29.83807254</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>1000</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B50">
         <v>114.0520899</v>
@@ -3758,27 +3759,27 @@
         <v>33.56978215</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>1000</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G50" t="s">
+        <v>114</v>
+      </c>
+      <c r="H50" t="s">
         <v>115</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>116</v>
-      </c>
-      <c r="I50" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B51">
         <v>114.2708748</v>
@@ -3787,27 +3788,27 @@
         <v>30.4584497</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>1000</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" t="s">
         <v>12</v>
       </c>
-      <c r="H51" t="s">
-        <v>13</v>
-      </c>
       <c r="I51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B52">
         <v>87.58898498</v>
@@ -3816,27 +3817,27 @@
         <v>43.82111211</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>1000</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G52" t="s">
+        <v>119</v>
+      </c>
+      <c r="H52" t="s">
         <v>120</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>121</v>
-      </c>
-      <c r="I52" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B53">
         <v>111.6736896</v>
@@ -3845,27 +3846,27 @@
         <v>32.38781507</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <v>1000</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B54">
         <v>114.2502227</v>
@@ -3874,27 +3875,27 @@
         <v>30.58149452</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>1000</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" t="s">
         <v>12</v>
       </c>
-      <c r="H54" t="s">
-        <v>13</v>
-      </c>
       <c r="I54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B55">
         <v>81.322878</v>
@@ -3903,27 +3904,27 @@
         <v>43.919497</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E55">
         <v>1000</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H55" t="s">
+        <v>127</v>
+      </c>
+      <c r="I55" t="s">
         <v>128</v>
-      </c>
-      <c r="I55" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B56">
         <v>115.685807</v>
@@ -3932,27 +3933,27 @@
         <v>32.18955261</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E56">
         <v>1000</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H56" t="s">
+        <v>130</v>
+      </c>
+      <c r="I56" t="s">
         <v>131</v>
-      </c>
-      <c r="I56" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B57">
         <v>108.9226103</v>
@@ -3961,27 +3962,27 @@
         <v>30.284587</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E57">
         <v>1000</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B58">
         <v>114.1401104</v>
@@ -3990,27 +3991,27 @@
         <v>30.40930167</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E58">
         <v>1000</v>
       </c>
       <c r="F58" t="s">
+        <v>134</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" t="s">
         <v>135</v>
-      </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B59">
         <v>113.181396</v>
@@ -4019,27 +4020,27 @@
         <v>30.65536</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E59">
         <v>1000</v>
       </c>
       <c r="F59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B60">
         <v>114.3254977</v>
@@ -4048,27 +4049,27 @@
         <v>29.86245336</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E60">
         <v>1000</v>
       </c>
       <c r="F60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B61">
         <v>116.006621</v>
@@ -4077,27 +4078,27 @@
         <v>29.728529</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>1000</v>
       </c>
       <c r="F61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G61" t="s">
+        <v>140</v>
+      </c>
+      <c r="H61" t="s">
         <v>141</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>142</v>
-      </c>
-      <c r="I61" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B62">
         <v>115.0455329</v>
@@ -4106,27 +4107,27 @@
         <v>30.20520785</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E62">
         <v>1000</v>
       </c>
       <c r="F62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B63">
         <v>117.769399</v>
@@ -4135,27 +4136,27 @@
         <v>39.88916308</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E63">
         <v>1000</v>
       </c>
       <c r="F63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G63" t="s">
+        <v>145</v>
+      </c>
+      <c r="H63" t="s">
         <v>146</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>147</v>
-      </c>
-      <c r="I63" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="B64">
         <v>114.316364</v>
@@ -4170,16 +4171,16 @@
         <v>50000</v>
       </c>
       <c r="F64" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" t="s">
         <v>12</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>13</v>
-      </c>
-      <c r="I64" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -4193,22 +4194,22 @@
         <v>30.53483567</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E65">
         <v>1000</v>
       </c>
       <c r="F65" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="G65" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" t="s">
         <v>12</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>13</v>
-      </c>
-      <c r="I65" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4222,22 +4223,22 @@
         <v>30.518371</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E66">
         <v>1000</v>
       </c>
       <c r="F66" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" t="s">
         <v>12</v>
       </c>
-      <c r="H66" t="s">
-        <v>13</v>
-      </c>
       <c r="I66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -4251,22 +4252,22 @@
         <v>30.4817799</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E67">
         <v>1000</v>
       </c>
       <c r="F67" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="G67" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" t="s">
         <v>12</v>
       </c>
-      <c r="H67" t="s">
-        <v>13</v>
-      </c>
       <c r="I67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -4280,22 +4281,22 @@
         <v>30.524004</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E68">
         <v>1000</v>
       </c>
       <c r="F68" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="G68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" t="s">
         <v>12</v>
       </c>
-      <c r="H68" t="s">
-        <v>13</v>
-      </c>
       <c r="I68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -4309,22 +4310,22 @@
         <v>30.526255</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E69">
         <v>1000</v>
       </c>
       <c r="F69" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="G69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" t="s">
         <v>12</v>
       </c>
-      <c r="H69" t="s">
-        <v>13</v>
-      </c>
       <c r="I69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -4338,22 +4339,22 @@
         <v>30.480612</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E70">
         <v>1000</v>
       </c>
       <c r="F70" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="G70" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" t="s">
         <v>12</v>
       </c>
-      <c r="H70" t="s">
-        <v>13</v>
-      </c>
       <c r="I70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -4367,22 +4368,22 @@
         <v>30.528856</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E71">
         <v>1000</v>
       </c>
       <c r="F71" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="G71" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" t="s">
         <v>12</v>
       </c>
-      <c r="H71" t="s">
-        <v>13</v>
-      </c>
       <c r="I71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -4396,22 +4397,22 @@
         <v>30.58372796</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E72">
         <v>1000</v>
       </c>
       <c r="F72" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="G72" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" t="s">
         <v>12</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>13</v>
-      </c>
-      <c r="I72" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -4425,22 +4426,22 @@
         <v>30.52183163</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E73">
         <v>1000</v>
       </c>
       <c r="F73" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="G73" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" t="s">
         <v>12</v>
       </c>
-      <c r="H73" t="s">
-        <v>13</v>
-      </c>
       <c r="I73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4454,22 +4455,22 @@
         <v>30.49187357</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E74">
         <v>1000</v>
       </c>
       <c r="F74" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="G74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" t="s">
         <v>12</v>
       </c>
-      <c r="H74" t="s">
-        <v>13</v>
-      </c>
       <c r="I74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4483,22 +4484,22 @@
         <v>30.48518366</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E75">
         <v>1000</v>
       </c>
       <c r="F75" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="G75" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" t="s">
         <v>12</v>
       </c>
-      <c r="H75" t="s">
-        <v>13</v>
-      </c>
       <c r="I75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -4512,22 +4513,22 @@
         <v>30.38214401</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E76">
         <v>1000</v>
       </c>
       <c r="F76" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="G76" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" t="s">
         <v>12</v>
       </c>
-      <c r="H76" t="s">
-        <v>13</v>
-      </c>
       <c r="I76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -4541,22 +4542,22 @@
         <v>30.50816497</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E77">
         <v>1000</v>
       </c>
       <c r="F77" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="G77" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" t="s">
         <v>12</v>
       </c>
-      <c r="H77" t="s">
-        <v>13</v>
-      </c>
       <c r="I77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -4570,22 +4571,22 @@
         <v>30.52085299</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E78">
         <v>1000</v>
       </c>
       <c r="F78" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="G78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" t="s">
         <v>12</v>
       </c>
-      <c r="H78" t="s">
-        <v>13</v>
-      </c>
       <c r="I78" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4599,22 +4600,22 @@
         <v>30.40296688</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E79">
         <v>1000</v>
       </c>
       <c r="F79" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="G79" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" t="s">
         <v>12</v>
       </c>
-      <c r="H79" t="s">
-        <v>13</v>
-      </c>
       <c r="I79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4628,7 +4629,7 @@
         <v>31.17038534</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E80">
         <v>1000</v>
@@ -4637,10 +4638,10 @@
         <v>165</v>
       </c>
       <c r="G80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I80" t="s">
         <v>166</v>
@@ -4657,7 +4658,7 @@
         <v>32.01568116</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E81">
         <v>1000</v>
@@ -4666,10 +4667,10 @@
         <v>165</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H81" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I81" t="s">
         <v>168</v>
@@ -4686,7 +4687,7 @@
         <v>30.70067477</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E82">
         <v>1000</v>
@@ -4695,10 +4696,10 @@
         <v>165</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I82" t="s">
         <v>170</v>
@@ -4715,7 +4716,7 @@
         <v>29.51225898</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E83">
         <v>1000</v>
@@ -4724,10 +4725,10 @@
         <v>165</v>
       </c>
       <c r="G83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I83" t="s">
         <v>172</v>
@@ -4744,7 +4745,7 @@
         <v>29.51225898</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E84">
         <v>1000</v>
@@ -4753,10 +4754,10 @@
         <v>165</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I84" t="s">
         <v>172</v>
@@ -4773,7 +4774,7 @@
         <v>30.93105599</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E85">
         <v>1000</v>
@@ -4782,13 +4783,13 @@
         <v>165</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4802,7 +4803,7 @@
         <v>28.69298889</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E86">
         <v>1000</v>
@@ -4811,7 +4812,7 @@
         <v>165</v>
       </c>
       <c r="G86" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H86" t="s">
         <v>176</v>
@@ -4831,7 +4832,7 @@
         <v>36.29210248</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E87">
         <v>1000</v>
@@ -4860,7 +4861,7 @@
         <v>26.57085757</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E88">
         <v>1000</v>
@@ -4889,7 +4890,7 @@
         <v>36.07206683</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E89">
         <v>1000</v>
@@ -4918,7 +4919,7 @@
         <v>28.20332636</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E90">
         <v>1000</v>
@@ -4947,7 +4948,7 @@
         <v>29.16150613</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E91">
         <v>1000</v>
@@ -4976,7 +4977,7 @@
         <v>23.04572102</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E92">
         <v>1000</v>
@@ -5005,7 +5006,7 @@
         <v>25.28350037</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E93">
         <v>1000</v>
@@ -5034,7 +5035,7 @@
         <v>40.46523603</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E94">
         <v>1000</v>
@@ -5043,10 +5044,10 @@
         <v>165</v>
       </c>
       <c r="G94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I94" t="s">
         <v>206</v>
@@ -5063,7 +5064,7 @@
         <v>31.1840889</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E95">
         <v>1000</v>
@@ -5072,13 +5073,13 @@
         <v>165</v>
       </c>
       <c r="G95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I95" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5092,7 +5093,7 @@
         <v>30.42610021</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E96">
         <v>1000</v>
@@ -5101,10 +5102,10 @@
         <v>165</v>
       </c>
       <c r="G96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I96" t="s">
         <v>209</v>
@@ -5121,7 +5122,7 @@
         <v>32.64133241</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E97">
         <v>1000</v>
@@ -5130,7 +5131,7 @@
         <v>165</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H97" t="s">
         <v>211</v>
@@ -5150,7 +5151,7 @@
         <v>30.45550489</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E98">
         <v>1000</v>
@@ -5159,13 +5160,13 @@
         <v>165</v>
       </c>
       <c r="G98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H98" t="s">
+        <v>20</v>
+      </c>
+      <c r="I98" t="s">
         <v>21</v>
-      </c>
-      <c r="I98" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -5179,7 +5180,7 @@
         <v>30.64480121</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E99">
         <v>1000</v>
@@ -5188,13 +5189,13 @@
         <v>165</v>
       </c>
       <c r="G99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" t="s">
         <v>12</v>
       </c>
-      <c r="H99" t="s">
-        <v>13</v>
-      </c>
       <c r="I99" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -5208,7 +5209,7 @@
         <v>30.64480121</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E100">
         <v>1000</v>
@@ -5217,13 +5218,13 @@
         <v>165</v>
       </c>
       <c r="G100" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" t="s">
         <v>12</v>
       </c>
-      <c r="H100" t="s">
-        <v>13</v>
-      </c>
       <c r="I100" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -5237,7 +5238,7 @@
         <v>30.64480121</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E101">
         <v>1000</v>
@@ -5246,13 +5247,13 @@
         <v>165</v>
       </c>
       <c r="G101" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" t="s">
         <v>12</v>
       </c>
-      <c r="H101" t="s">
-        <v>13</v>
-      </c>
       <c r="I101" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -5266,7 +5267,7 @@
         <v>30.30338567</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E102">
         <v>1000</v>
@@ -5275,10 +5276,10 @@
         <v>165</v>
       </c>
       <c r="G102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I102" t="s">
         <v>218</v>
@@ -5286,7 +5287,7 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B103">
         <v>114.994125</v>
@@ -5295,7 +5296,7 @@
         <v>31.18003943</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E103">
         <v>1000</v>
@@ -5304,13 +5305,13 @@
         <v>165</v>
       </c>
       <c r="G103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H103" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I103" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -5324,7 +5325,7 @@
         <v>29.84761958</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E104">
         <v>1000</v>
@@ -5333,13 +5334,13 @@
         <v>165</v>
       </c>
       <c r="G104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -5353,7 +5354,7 @@
         <v>43.80000413</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E105">
         <v>1000</v>
@@ -5362,10 +5363,10 @@
         <v>165</v>
       </c>
       <c r="G105" t="s">
+        <v>119</v>
+      </c>
+      <c r="H105" t="s">
         <v>120</v>
-      </c>
-      <c r="H105" t="s">
-        <v>121</v>
       </c>
       <c r="I105" t="s">
         <v>221</v>
@@ -5382,7 +5383,7 @@
         <v>40.78296723</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E106">
         <v>1000</v>
@@ -5411,7 +5412,7 @@
         <v>40.63907728</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E107">
         <v>1000</v>
@@ -5420,10 +5421,10 @@
         <v>165</v>
       </c>
       <c r="G107" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H107" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I107" t="s">
         <v>227</v>
@@ -5440,7 +5441,7 @@
         <v>29.33104138</v>
       </c>
       <c r="D108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E108">
         <v>1000</v>
@@ -5469,7 +5470,7 @@
         <v>38.49619909</v>
       </c>
       <c r="D109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E109">
         <v>1000</v>
@@ -5498,7 +5499,7 @@
         <v>34.72639992</v>
       </c>
       <c r="D110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E110">
         <v>1000</v>
@@ -5507,7 +5508,7 @@
         <v>165</v>
       </c>
       <c r="G110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H110" t="s">
         <v>237</v>
@@ -5527,7 +5528,7 @@
         <v>34.03522633</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E111">
         <v>1000</v>
@@ -5536,7 +5537,7 @@
         <v>165</v>
       </c>
       <c r="G111" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H111" t="s">
         <v>240</v>
@@ -5556,7 +5557,7 @@
         <v>36.10519689</v>
       </c>
       <c r="D112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E112">
         <v>1000</v>
@@ -5565,7 +5566,7 @@
         <v>165</v>
       </c>
       <c r="G112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H112" t="s">
         <v>243</v>
@@ -5585,7 +5586,7 @@
         <v>30.42610021</v>
       </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E113">
         <v>1000</v>
@@ -5594,10 +5595,10 @@
         <v>165</v>
       </c>
       <c r="G113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I113" t="s">
         <v>209</v>
@@ -5614,7 +5615,7 @@
         <v>30.50162438</v>
       </c>
       <c r="D114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E114">
         <v>1000</v>
@@ -5623,13 +5624,13 @@
         <v>165</v>
       </c>
       <c r="G114" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" t="s">
         <v>12</v>
       </c>
-      <c r="H114" t="s">
-        <v>13</v>
-      </c>
       <c r="I114" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -5643,7 +5644,7 @@
         <v>32.13441934</v>
       </c>
       <c r="D115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E115">
         <v>1000</v>
@@ -5652,13 +5653,13 @@
         <v>165</v>
       </c>
       <c r="G115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H115" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -5672,7 +5673,7 @@
         <v>30.59029693</v>
       </c>
       <c r="D116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E116">
         <v>1000</v>
@@ -5681,13 +5682,13 @@
         <v>165</v>
       </c>
       <c r="G116" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116" t="s">
         <v>12</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>13</v>
-      </c>
-      <c r="I116" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -5701,7 +5702,7 @@
         <v>31.61399628</v>
       </c>
       <c r="D117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E117">
         <v>1000</v>
@@ -5710,13 +5711,13 @@
         <v>165</v>
       </c>
       <c r="G117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I117" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -5730,7 +5731,7 @@
         <v>32.66128772</v>
       </c>
       <c r="D118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E118">
         <v>1000</v>
@@ -5739,7 +5740,7 @@
         <v>165</v>
       </c>
       <c r="G118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H118" t="s">
         <v>211</v>
@@ -5759,7 +5760,7 @@
         <v>32.22653726</v>
       </c>
       <c r="D119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E119">
         <v>1000</v>
@@ -5768,7 +5769,7 @@
         <v>165</v>
       </c>
       <c r="G119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H119" t="s">
         <v>211</v>
@@ -5788,7 +5789,7 @@
         <v>30.35797523</v>
       </c>
       <c r="D120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E120">
         <v>1000</v>
@@ -5797,13 +5798,13 @@
         <v>165</v>
       </c>
       <c r="G120" t="s">
+        <v>11</v>
+      </c>
+      <c r="H120" t="s">
         <v>12</v>
       </c>
-      <c r="H120" t="s">
-        <v>13</v>
-      </c>
       <c r="I120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5817,7 +5818,7 @@
         <v>18.2474879</v>
       </c>
       <c r="D121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E121">
         <v>1000</v>
@@ -5846,7 +5847,7 @@
         <v>30.63191849</v>
       </c>
       <c r="D122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E122">
         <v>1000</v>
@@ -5855,13 +5856,13 @@
         <v>165</v>
       </c>
       <c r="G122" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122" t="s">
         <v>12</v>
       </c>
-      <c r="H122" t="s">
-        <v>13</v>
-      </c>
       <c r="I122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -5875,7 +5876,7 @@
         <v>30.59262755</v>
       </c>
       <c r="D123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E123">
         <v>1000</v>
@@ -5884,13 +5885,13 @@
         <v>165</v>
       </c>
       <c r="G123" t="s">
+        <v>11</v>
+      </c>
+      <c r="H123" t="s">
         <v>12</v>
       </c>
-      <c r="H123" t="s">
-        <v>13</v>
-      </c>
       <c r="I123" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -5904,7 +5905,7 @@
         <v>30.37876497</v>
       </c>
       <c r="D124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E124">
         <v>1000</v>
@@ -5913,13 +5914,13 @@
         <v>165</v>
       </c>
       <c r="G124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I124" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -5933,7 +5934,7 @@
         <v>27.53081571</v>
       </c>
       <c r="D125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E125">
         <v>1000</v>
@@ -5962,7 +5963,7 @@
         <v>29.72818737</v>
       </c>
       <c r="D126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E126">
         <v>1000</v>
@@ -5971,13 +5972,13 @@
         <v>165</v>
       </c>
       <c r="G126" t="s">
+        <v>140</v>
+      </c>
+      <c r="H126" t="s">
         <v>141</v>
       </c>
-      <c r="H126" t="s">
+      <c r="I126" t="s">
         <v>142</v>
-      </c>
-      <c r="I126" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -5991,7 +5992,7 @@
         <v>33.81110124</v>
       </c>
       <c r="D127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E127">
         <v>1000</v>
@@ -6000,10 +6001,10 @@
         <v>165</v>
       </c>
       <c r="G127" t="s">
+        <v>114</v>
+      </c>
+      <c r="H127" t="s">
         <v>115</v>
-      </c>
-      <c r="H127" t="s">
-        <v>116</v>
       </c>
       <c r="I127" t="s">
         <v>266</v>
@@ -6020,7 +6021,7 @@
         <v>32.99087057</v>
       </c>
       <c r="D128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E128">
         <v>1000</v>
@@ -6029,7 +6030,7 @@
         <v>165</v>
       </c>
       <c r="G128" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H128" t="s">
         <v>268</v>
@@ -6049,7 +6050,7 @@
         <v>26.58148734</v>
       </c>
       <c r="D129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E129">
         <v>1000</v>
@@ -6078,7 +6079,7 @@
         <v>44.60872904</v>
       </c>
       <c r="D130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E130">
         <v>1000</v>
@@ -6087,7 +6088,7 @@
         <v>165</v>
       </c>
       <c r="G130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H130" t="s">
         <v>274</v>
@@ -6116,13 +6117,13 @@
         <v>165</v>
       </c>
       <c r="G131" t="s">
+        <v>11</v>
+      </c>
+      <c r="H131" t="s">
         <v>12</v>
       </c>
-      <c r="H131" t="s">
-        <v>13</v>
-      </c>
       <c r="I131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -6136,7 +6137,7 @@
         <v>30.70972533</v>
       </c>
       <c r="D132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E132">
         <v>1000</v>
@@ -6145,10 +6146,10 @@
         <v>165</v>
       </c>
       <c r="G132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H132" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I132" t="s">
         <v>170</v>
@@ -6165,7 +6166,7 @@
         <v>31.05072924</v>
       </c>
       <c r="D133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E133">
         <v>1000</v>
@@ -6174,10 +6175,10 @@
         <v>165</v>
       </c>
       <c r="G133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H133" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I133" t="s">
         <v>279</v>
@@ -6194,7 +6195,7 @@
         <v>30.59281601</v>
       </c>
       <c r="D134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E134">
         <v>1000</v>
@@ -6203,13 +6204,13 @@
         <v>165</v>
       </c>
       <c r="G134" t="s">
+        <v>11</v>
+      </c>
+      <c r="H134" t="s">
         <v>12</v>
       </c>
-      <c r="H134" t="s">
-        <v>13</v>
-      </c>
       <c r="I134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -6223,7 +6224,7 @@
         <v>39.15348514</v>
       </c>
       <c r="D135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E135">
         <v>1000</v>
@@ -6252,7 +6253,7 @@
         <v>22.56394729</v>
       </c>
       <c r="D136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E136">
         <v>1000</v>
@@ -6281,7 +6282,7 @@
         <v>23.02502485</v>
       </c>
       <c r="D137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E137">
         <v>1000</v>
@@ -6310,7 +6311,7 @@
         <v>32.6112441</v>
       </c>
       <c r="D138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E138">
         <v>1000</v>
@@ -6319,7 +6320,7 @@
         <v>165</v>
       </c>
       <c r="G138" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H138" t="s">
         <v>291</v>
@@ -6339,7 +6340,7 @@
         <v>35.90873962</v>
       </c>
       <c r="D139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E139">
         <v>1000</v>
@@ -6348,7 +6349,7 @@
         <v>165</v>
       </c>
       <c r="G139" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H139" t="s">
         <v>294</v>
@@ -6368,7 +6369,7 @@
         <v>24.55675764</v>
       </c>
       <c r="D140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E140">
         <v>1000</v>
@@ -6397,7 +6398,7 @@
         <v>25.86686903</v>
       </c>
       <c r="D141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E141">
         <v>1000</v>
@@ -6406,7 +6407,7 @@
         <v>165</v>
       </c>
       <c r="G141" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H141" t="s">
         <v>301</v>
@@ -6426,7 +6427,7 @@
         <v>31.7385122</v>
       </c>
       <c r="D142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E142">
         <v>1000</v>
@@ -6455,7 +6456,7 @@
         <v>27.90934398</v>
       </c>
       <c r="D143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E143">
         <v>1000</v>
@@ -6484,7 +6485,7 @@
         <v>32.99917427</v>
       </c>
       <c r="D144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E144">
         <v>1000</v>
@@ -6493,7 +6494,7 @@
         <v>165</v>
       </c>
       <c r="G144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H144" t="s">
         <v>211</v>
@@ -6513,7 +6514,7 @@
         <v>33.74646806</v>
       </c>
       <c r="D145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E145">
         <v>1000</v>
@@ -6522,7 +6523,7 @@
         <v>165</v>
       </c>
       <c r="G145" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H145" t="s">
         <v>313</v>
@@ -6542,7 +6543,7 @@
         <v>31.29275739</v>
       </c>
       <c r="D146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E146">
         <v>1000</v>
@@ -6571,7 +6572,7 @@
         <v>31.73408171</v>
       </c>
       <c r="D147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E147">
         <v>1000</v>
@@ -6609,13 +6610,13 @@
         <v>165</v>
       </c>
       <c r="G148" t="s">
+        <v>11</v>
+      </c>
+      <c r="H148" t="s">
         <v>12</v>
       </c>
-      <c r="H148" t="s">
-        <v>13</v>
-      </c>
       <c r="I148" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -6629,7 +6630,7 @@
         <v>22.7007885</v>
       </c>
       <c r="D149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E149">
         <v>1000</v>
@@ -6658,7 +6659,7 @@
         <v>22.80621751</v>
       </c>
       <c r="D150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E150">
         <v>1000</v>
@@ -6687,7 +6688,7 @@
         <v>29.61283231</v>
       </c>
       <c r="D151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E151">
         <v>1000</v>
@@ -6716,7 +6717,7 @@
         <v>30.65511985</v>
       </c>
       <c r="D152" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E152">
         <v>1000</v>
@@ -6725,13 +6726,13 @@
         <v>320</v>
       </c>
       <c r="G152" t="s">
+        <v>11</v>
+      </c>
+      <c r="H152" t="s">
         <v>12</v>
       </c>
-      <c r="H152" t="s">
-        <v>13</v>
-      </c>
       <c r="I152" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -6745,7 +6746,7 @@
         <v>30.59846674</v>
       </c>
       <c r="D153" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E153">
         <v>1000</v>
@@ -6754,13 +6755,13 @@
         <v>320</v>
       </c>
       <c r="G153" t="s">
+        <v>11</v>
+      </c>
+      <c r="H153" t="s">
         <v>12</v>
       </c>
-      <c r="H153" t="s">
-        <v>13</v>
-      </c>
       <c r="I153" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -6774,7 +6775,7 @@
         <v>31.02885188</v>
       </c>
       <c r="D154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E154">
         <v>1000</v>
@@ -6783,10 +6784,10 @@
         <v>320</v>
       </c>
       <c r="G154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H154" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I154" t="s">
         <v>331</v>
@@ -6803,7 +6804,7 @@
         <v>30.49777209</v>
       </c>
       <c r="D155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E155">
         <v>1000</v>
@@ -6812,13 +6813,13 @@
         <v>320</v>
       </c>
       <c r="G155" t="s">
+        <v>11</v>
+      </c>
+      <c r="H155" t="s">
         <v>12</v>
       </c>
-      <c r="H155" t="s">
-        <v>13</v>
-      </c>
       <c r="I155" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -6832,7 +6833,7 @@
         <v>30.64652488</v>
       </c>
       <c r="D156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E156">
         <v>1000</v>
@@ -6841,10 +6842,10 @@
         <v>333</v>
       </c>
       <c r="G156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H156" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I156" t="s">
         <v>334</v>
@@ -6861,7 +6862,7 @@
         <v>31.11985288</v>
       </c>
       <c r="D157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E157">
         <v>1000</v>
@@ -6870,10 +6871,10 @@
         <v>333</v>
       </c>
       <c r="G157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H157" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I157" t="s">
         <v>166</v>
@@ -6890,7 +6891,7 @@
         <v>30.36719294</v>
       </c>
       <c r="D158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E158">
         <v>1000</v>
@@ -6899,13 +6900,13 @@
         <v>333</v>
       </c>
       <c r="G158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I158" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -6919,7 +6920,7 @@
         <v>30.31942143</v>
       </c>
       <c r="D159" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E159">
         <v>1000</v>
@@ -6928,10 +6929,10 @@
         <v>333</v>
       </c>
       <c r="G159" t="s">
+        <v>11</v>
+      </c>
+      <c r="H159" t="s">
         <v>12</v>
-      </c>
-      <c r="H159" t="s">
-        <v>13</v>
       </c>
       <c r="I159" t="s">
         <v>338</v>
@@ -6948,7 +6949,7 @@
         <v>19.30399788</v>
       </c>
       <c r="D160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E160">
         <v>1000</v>
@@ -6977,7 +6978,7 @@
         <v>30.31942143</v>
       </c>
       <c r="D161" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E161">
         <v>1000</v>
@@ -6986,10 +6987,10 @@
         <v>333</v>
       </c>
       <c r="G161" t="s">
+        <v>11</v>
+      </c>
+      <c r="H161" t="s">
         <v>12</v>
-      </c>
-      <c r="H161" t="s">
-        <v>13</v>
       </c>
       <c r="I161" t="s">
         <v>338</v>
@@ -7006,7 +7007,7 @@
         <v>30.16302403</v>
       </c>
       <c r="D162" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E162">
         <v>1000</v>
@@ -7015,10 +7016,10 @@
         <v>333</v>
       </c>
       <c r="G162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H162" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I162" t="s">
         <v>343</v>
@@ -7035,7 +7036,7 @@
         <v>30.4037768</v>
       </c>
       <c r="D163" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E163">
         <v>1000</v>
@@ -7044,7 +7045,7 @@
         <v>333</v>
       </c>
       <c r="G163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H163" t="s">
         <v>345</v>
@@ -7064,7 +7065,7 @@
         <v>30.71870278</v>
       </c>
       <c r="D164" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E164">
         <v>1000</v>
@@ -7073,10 +7074,10 @@
         <v>333</v>
       </c>
       <c r="G164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H164" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I164" t="s">
         <v>348</v>
@@ -7093,7 +7094,7 @@
         <v>32.36719017</v>
       </c>
       <c r="D165" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E165">
         <v>1000</v>
@@ -7102,10 +7103,10 @@
         <v>333</v>
       </c>
       <c r="G165" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H165" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I165" t="s">
         <v>350</v>
@@ -7122,7 +7123,7 @@
         <v>32.17340878</v>
       </c>
       <c r="D166" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E166">
         <v>1000</v>
@@ -7131,13 +7132,13 @@
         <v>333</v>
       </c>
       <c r="G166" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H166" t="s">
+        <v>130</v>
+      </c>
+      <c r="I166" t="s">
         <v>131</v>
-      </c>
-      <c r="I166" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -7151,7 +7152,7 @@
         <v>32.12685195</v>
       </c>
       <c r="D167" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E167">
         <v>1000</v>
@@ -7160,10 +7161,10 @@
         <v>333</v>
       </c>
       <c r="G167" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H167" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I167" t="s">
         <v>353</v>
@@ -7180,7 +7181,7 @@
         <v>30.62536363</v>
       </c>
       <c r="D168" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E168">
         <v>20000</v>
@@ -7189,10 +7190,10 @@
         <v>333</v>
       </c>
       <c r="G168" t="s">
+        <v>11</v>
+      </c>
+      <c r="H168" t="s">
         <v>12</v>
-      </c>
-      <c r="H168" t="s">
-        <v>13</v>
       </c>
       <c r="I168" t="s">
         <v>355</v>
@@ -7209,7 +7210,7 @@
         <v>30.05254124</v>
       </c>
       <c r="D169" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E169">
         <v>1000</v>
@@ -7218,10 +7219,10 @@
         <v>333</v>
       </c>
       <c r="G169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H169" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I169" t="s">
         <v>357</v>
@@ -7238,7 +7239,7 @@
         <v>30.94800587</v>
       </c>
       <c r="D170" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E170">
         <v>1000</v>
@@ -7247,18 +7248,18 @@
         <v>333</v>
       </c>
       <c r="G170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H170" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I170" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B171">
         <v>115.9508929</v>
@@ -7267,7 +7268,7 @@
         <v>30.08262386</v>
       </c>
       <c r="D171" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E171">
         <v>1000</v>
@@ -7276,13 +7277,13 @@
         <v>333</v>
       </c>
       <c r="G171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H171" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I171" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -7296,7 +7297,7 @@
         <v>31.18861285</v>
       </c>
       <c r="D172" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E172">
         <v>1000</v>
@@ -7305,13 +7306,13 @@
         <v>333</v>
       </c>
       <c r="G172" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H172" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I172" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -7325,7 +7326,7 @@
         <v>30.66310489</v>
       </c>
       <c r="D173" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E173">
         <v>15000</v>
@@ -7334,10 +7335,10 @@
         <v>333</v>
       </c>
       <c r="G173" t="s">
+        <v>11</v>
+      </c>
+      <c r="H173" t="s">
         <v>12</v>
-      </c>
-      <c r="H173" t="s">
-        <v>13</v>
       </c>
       <c r="I173" t="s">
         <v>355</v>
@@ -7354,7 +7355,7 @@
         <v>30.78902699</v>
       </c>
       <c r="D174" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E174">
         <v>1000</v>
@@ -7363,13 +7364,13 @@
         <v>333</v>
       </c>
       <c r="G174" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H174" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I174" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -7383,7 +7384,7 @@
         <v>31.1717226</v>
       </c>
       <c r="D175" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E175">
         <v>1000</v>
@@ -7392,13 +7393,13 @@
         <v>333</v>
       </c>
       <c r="G175" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H175" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I175" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -7412,7 +7413,7 @@
         <v>29.84153399</v>
       </c>
       <c r="D176" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E176">
         <v>1000</v>
@@ -7421,10 +7422,10 @@
         <v>333</v>
       </c>
       <c r="G176" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H176" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I176" t="s">
         <v>364</v>
@@ -7441,7 +7442,7 @@
         <v>40.47830889</v>
       </c>
       <c r="D177" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E177">
         <v>15000</v>
@@ -7450,10 +7451,10 @@
         <v>333</v>
       </c>
       <c r="G177" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H177" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I177" t="s">
         <v>206</v>
@@ -7470,7 +7471,7 @@
         <v>30.58697042</v>
       </c>
       <c r="D178" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E178">
         <v>15000</v>
@@ -7479,13 +7480,13 @@
         <v>333</v>
       </c>
       <c r="G178" t="s">
+        <v>11</v>
+      </c>
+      <c r="H178" t="s">
         <v>12</v>
       </c>
-      <c r="H178" t="s">
+      <c r="I178" t="s">
         <v>13</v>
-      </c>
-      <c r="I178" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -7499,7 +7500,7 @@
         <v>30.54728093</v>
       </c>
       <c r="D179" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E179">
         <v>1000</v>
@@ -7508,13 +7509,13 @@
         <v>333</v>
       </c>
       <c r="G179" t="s">
+        <v>11</v>
+      </c>
+      <c r="H179" t="s">
         <v>12</v>
       </c>
-      <c r="H179" t="s">
+      <c r="I179" t="s">
         <v>13</v>
-      </c>
-      <c r="I179" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -7528,7 +7529,7 @@
         <v>31.25009196</v>
       </c>
       <c r="D180" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E180">
         <v>1000</v>
@@ -7537,10 +7538,10 @@
         <v>333</v>
       </c>
       <c r="G180" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H180" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I180" t="s">
         <v>369</v>
@@ -7557,7 +7558,7 @@
         <v>31.04085139</v>
       </c>
       <c r="D181" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E181">
         <v>1000</v>
@@ -7566,13 +7567,13 @@
         <v>333</v>
       </c>
       <c r="G181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H181" t="s">
+        <v>26</v>
+      </c>
+      <c r="I181" t="s">
         <v>27</v>
-      </c>
-      <c r="I181" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -7586,7 +7587,7 @@
         <v>29.73083191</v>
       </c>
       <c r="D182" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E182">
         <v>1000</v>
@@ -7595,10 +7596,10 @@
         <v>333</v>
       </c>
       <c r="G182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H182" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I182" t="s">
         <v>372</v>
@@ -7615,7 +7616,7 @@
         <v>32.13893105</v>
       </c>
       <c r="D183" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E183">
         <v>1000</v>
@@ -7624,10 +7625,10 @@
         <v>333</v>
       </c>
       <c r="G183" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H183" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I183" t="s">
         <v>374</v>
@@ -7644,7 +7645,7 @@
         <v>39.73656511</v>
       </c>
       <c r="D184" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E184">
         <v>1000</v>
@@ -7653,10 +7654,10 @@
         <v>333</v>
       </c>
       <c r="G184" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H184" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I184" t="s">
         <v>376</v>
@@ -7673,7 +7674,7 @@
         <v>30.44911592</v>
       </c>
       <c r="D185" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E185">
         <v>1000</v>
@@ -7682,13 +7683,13 @@
         <v>333</v>
       </c>
       <c r="G185" t="s">
+        <v>11</v>
+      </c>
+      <c r="H185" t="s">
         <v>12</v>
       </c>
-      <c r="H185" t="s">
-        <v>13</v>
-      </c>
       <c r="I185" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -7702,7 +7703,7 @@
         <v>29.72454899</v>
       </c>
       <c r="D186" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E186">
         <v>1000</v>
@@ -7711,13 +7712,13 @@
         <v>333</v>
       </c>
       <c r="G186" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H186" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I186" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -7731,7 +7732,7 @@
         <v>30.36434561</v>
       </c>
       <c r="D187" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E187">
         <v>20000</v>
@@ -7740,13 +7741,13 @@
         <v>333</v>
       </c>
       <c r="G187" t="s">
+        <v>11</v>
+      </c>
+      <c r="H187" t="s">
         <v>12</v>
       </c>
-      <c r="H187" t="s">
-        <v>13</v>
-      </c>
       <c r="I187" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -7760,7 +7761,7 @@
         <v>31.61836867</v>
       </c>
       <c r="D188" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E188">
         <v>1000</v>
@@ -7769,18 +7770,18 @@
         <v>333</v>
       </c>
       <c r="G188" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H188" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I188" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B189">
         <v>111.560414</v>
@@ -7789,7 +7790,7 @@
         <v>32.27711604</v>
       </c>
       <c r="D189" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E189">
         <v>1000</v>
@@ -7798,18 +7799,18 @@
         <v>333</v>
       </c>
       <c r="G189" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H189" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I189" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B190">
         <v>113.8276877</v>
@@ -7818,7 +7819,7 @@
         <v>31.61764859</v>
       </c>
       <c r="D190" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E190">
         <v>1000</v>
@@ -7827,13 +7828,13 @@
         <v>333</v>
       </c>
       <c r="G190" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H190" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I190" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -7856,13 +7857,13 @@
         <v>333</v>
       </c>
       <c r="G191" t="s">
+        <v>11</v>
+      </c>
+      <c r="H191" t="s">
         <v>12</v>
       </c>
-      <c r="H191" t="s">
-        <v>13</v>
-      </c>
       <c r="I191" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -7876,7 +7877,7 @@
         <v>29.82669111</v>
       </c>
       <c r="D192" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E192">
         <v>1000</v>
@@ -7885,13 +7886,13 @@
         <v>333</v>
       </c>
       <c r="G192" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H192" t="s">
+        <v>54</v>
+      </c>
+      <c r="I192" t="s">
         <v>55</v>
-      </c>
-      <c r="I192" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -7905,7 +7906,7 @@
         <v>30.48525563</v>
       </c>
       <c r="D193" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E193">
         <v>1000</v>
@@ -7914,13 +7915,13 @@
         <v>333</v>
       </c>
       <c r="G193" t="s">
+        <v>11</v>
+      </c>
+      <c r="H193" t="s">
         <v>12</v>
       </c>
-      <c r="H193" t="s">
-        <v>13</v>
-      </c>
       <c r="I193" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -7934,7 +7935,7 @@
         <v>29.97635352</v>
       </c>
       <c r="D194" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E194">
         <v>1000</v>
@@ -7943,13 +7944,13 @@
         <v>333</v>
       </c>
       <c r="G194" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H194" t="s">
+        <v>29</v>
+      </c>
+      <c r="I194" t="s">
         <v>30</v>
-      </c>
-      <c r="I194" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -7963,7 +7964,7 @@
         <v>30.60431886</v>
       </c>
       <c r="D195" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E195">
         <v>1000</v>
@@ -7972,13 +7973,13 @@
         <v>333</v>
       </c>
       <c r="G195" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H195" t="s">
+        <v>101</v>
+      </c>
+      <c r="I195" t="s">
         <v>102</v>
-      </c>
-      <c r="I195" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -7992,7 +7993,7 @@
         <v>29.86391369</v>
       </c>
       <c r="D196" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E196">
         <v>1000</v>
@@ -8001,13 +8002,13 @@
         <v>333</v>
       </c>
       <c r="G196" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H196" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I196" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -8021,7 +8022,7 @@
         <v>29.83756133</v>
       </c>
       <c r="D197" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E197">
         <v>1000</v>
@@ -8030,13 +8031,13 @@
         <v>333</v>
       </c>
       <c r="G197" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H197" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I197" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -8050,7 +8051,7 @@
         <v>30.6429756</v>
       </c>
       <c r="D198" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E198">
         <v>1000</v>
@@ -8059,10 +8060,10 @@
         <v>333</v>
       </c>
       <c r="G198" t="s">
+        <v>11</v>
+      </c>
+      <c r="H198" t="s">
         <v>12</v>
-      </c>
-      <c r="H198" t="s">
-        <v>13</v>
       </c>
       <c r="I198" t="s">
         <v>355</v>
@@ -8079,7 +8080,7 @@
         <v>30.07668022</v>
       </c>
       <c r="D199" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E199">
         <v>1000</v>
@@ -8088,10 +8089,10 @@
         <v>333</v>
       </c>
       <c r="G199" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H199" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I199" t="s">
         <v>391</v>
@@ -8108,7 +8109,7 @@
         <v>30.79346148</v>
       </c>
       <c r="D200" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E200">
         <v>1000</v>
@@ -8117,13 +8118,13 @@
         <v>333</v>
       </c>
       <c r="G200" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H200" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I200" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -8137,7 +8138,7 @@
         <v>29.72995242</v>
       </c>
       <c r="D201" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E201">
         <v>1000</v>
@@ -8146,13 +8147,13 @@
         <v>333</v>
       </c>
       <c r="G201" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H201" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I201" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -8166,7 +8167,7 @@
         <v>30.36881098</v>
       </c>
       <c r="D202" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E202">
         <v>1000</v>
@@ -8175,10 +8176,10 @@
         <v>333</v>
       </c>
       <c r="G202" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H202" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I202" t="s">
         <v>395</v>
@@ -8195,7 +8196,7 @@
         <v>30.63619692</v>
       </c>
       <c r="D203" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E203">
         <v>1000</v>
@@ -8204,13 +8205,13 @@
         <v>333</v>
       </c>
       <c r="G203" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H203" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I203" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -8224,7 +8225,7 @@
         <v>30.4817799</v>
       </c>
       <c r="D204" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E204">
         <v>1000</v>
@@ -8233,18 +8234,18 @@
         <v>333</v>
       </c>
       <c r="G204" t="s">
+        <v>11</v>
+      </c>
+      <c r="H204" t="s">
         <v>12</v>
       </c>
-      <c r="H204" t="s">
-        <v>13</v>
-      </c>
       <c r="I204" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B205">
         <v>114.362659</v>
@@ -8253,7 +8254,7 @@
         <v>30.6097389</v>
       </c>
       <c r="D205" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E205">
         <v>1000</v>
@@ -8262,18 +8263,18 @@
         <v>333</v>
       </c>
       <c r="G205" t="s">
+        <v>11</v>
+      </c>
+      <c r="H205" t="s">
         <v>12</v>
       </c>
-      <c r="H205" t="s">
+      <c r="I205" t="s">
         <v>13</v>
-      </c>
-      <c r="I205" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B206">
         <v>116.3571699</v>
@@ -8282,7 +8283,7 @@
         <v>39.99794339</v>
       </c>
       <c r="D206" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E206">
         <v>1000</v>
@@ -8291,13 +8292,13 @@
         <v>333</v>
       </c>
       <c r="G206" t="s">
+        <v>50</v>
+      </c>
+      <c r="H206" t="s">
+        <v>50</v>
+      </c>
+      <c r="I206" t="s">
         <v>51</v>
-      </c>
-      <c r="H206" t="s">
-        <v>51</v>
-      </c>
-      <c r="I206" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -8311,7 +8312,7 @@
         <v>30.55007194</v>
       </c>
       <c r="D207" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E207">
         <v>1000</v>
@@ -8320,13 +8321,13 @@
         <v>333</v>
       </c>
       <c r="G207" t="s">
+        <v>11</v>
+      </c>
+      <c r="H207" t="s">
         <v>12</v>
       </c>
-      <c r="H207" t="s">
+      <c r="I207" t="s">
         <v>13</v>
-      </c>
-      <c r="I207" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -8340,7 +8341,7 @@
         <v>30.40296688</v>
       </c>
       <c r="D208" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E208">
         <v>1000</v>
@@ -8349,13 +8350,13 @@
         <v>333</v>
       </c>
       <c r="G208" t="s">
+        <v>11</v>
+      </c>
+      <c r="H208" t="s">
         <v>12</v>
       </c>
-      <c r="H208" t="s">
-        <v>13</v>
-      </c>
       <c r="I208" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -8369,7 +8370,7 @@
         <v>30.49347551</v>
       </c>
       <c r="D209" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E209">
         <v>1000</v>
@@ -8378,13 +8379,13 @@
         <v>333</v>
       </c>
       <c r="G209" t="s">
+        <v>11</v>
+      </c>
+      <c r="H209" t="s">
         <v>12</v>
       </c>
-      <c r="H209" t="s">
-        <v>13</v>
-      </c>
       <c r="I209" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -8398,7 +8399,7 @@
         <v>30.434476</v>
       </c>
       <c r="D210" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E210">
         <v>1000</v>
@@ -8407,13 +8408,13 @@
         <v>333</v>
       </c>
       <c r="G210" t="s">
+        <v>11</v>
+      </c>
+      <c r="H210" t="s">
         <v>12</v>
       </c>
-      <c r="H210" t="s">
-        <v>13</v>
-      </c>
       <c r="I210" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -8427,7 +8428,7 @@
         <v>30.30809338</v>
       </c>
       <c r="D211" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E211">
         <v>1000</v>
@@ -8436,13 +8437,13 @@
         <v>333</v>
       </c>
       <c r="G211" t="s">
+        <v>11</v>
+      </c>
+      <c r="H211" t="s">
         <v>12</v>
       </c>
-      <c r="H211" t="s">
-        <v>13</v>
-      </c>
       <c r="I211" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -8456,7 +8457,7 @@
         <v>30.39430456</v>
       </c>
       <c r="D212" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E212">
         <v>1000</v>
@@ -8465,13 +8466,13 @@
         <v>333</v>
       </c>
       <c r="G212" t="s">
+        <v>11</v>
+      </c>
+      <c r="H212" t="s">
         <v>12</v>
       </c>
-      <c r="H212" t="s">
-        <v>13</v>
-      </c>
       <c r="I212" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -8485,7 +8486,7 @@
         <v>30.46749045</v>
       </c>
       <c r="D213" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E213">
         <v>1000</v>
@@ -8494,13 +8495,13 @@
         <v>333</v>
       </c>
       <c r="G213" t="s">
+        <v>11</v>
+      </c>
+      <c r="H213" t="s">
         <v>12</v>
       </c>
-      <c r="H213" t="s">
-        <v>13</v>
-      </c>
       <c r="I213" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -8514,7 +8515,7 @@
         <v>30.44918029</v>
       </c>
       <c r="D214" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E214">
         <v>1000</v>
@@ -8523,13 +8524,13 @@
         <v>333</v>
       </c>
       <c r="G214" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H214" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I214" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -8543,7 +8544,7 @@
         <v>30.45716105</v>
       </c>
       <c r="D215" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E215">
         <v>1000</v>
@@ -8552,13 +8553,13 @@
         <v>333</v>
       </c>
       <c r="G215" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H215" t="s">
+        <v>20</v>
+      </c>
+      <c r="I215" t="s">
         <v>21</v>
-      </c>
-      <c r="I215" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -8572,7 +8573,7 @@
         <v>30.65182494</v>
       </c>
       <c r="D216" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E216">
         <v>1000</v>
@@ -8581,10 +8582,10 @@
         <v>333</v>
       </c>
       <c r="G216" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H216" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I216" t="s">
         <v>334</v>
@@ -8601,7 +8602,7 @@
         <v>31.71462534</v>
       </c>
       <c r="D217" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E217">
         <v>1000</v>
@@ -8610,13 +8611,13 @@
         <v>333</v>
       </c>
       <c r="G217" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H217" t="s">
+        <v>16</v>
+      </c>
+      <c r="I217" t="s">
         <v>17</v>
-      </c>
-      <c r="I217" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -8630,7 +8631,7 @@
         <v>31.70684782</v>
       </c>
       <c r="D218" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E218">
         <v>1000</v>
@@ -8639,10 +8640,10 @@
         <v>333</v>
       </c>
       <c r="G218" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H218" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I218" t="s">
         <v>410</v>
@@ -8659,7 +8660,7 @@
         <v>30.55279174</v>
       </c>
       <c r="D219" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E219">
         <v>1000</v>
@@ -8668,10 +8669,10 @@
         <v>333</v>
       </c>
       <c r="G219" t="s">
+        <v>11</v>
+      </c>
+      <c r="H219" t="s">
         <v>12</v>
-      </c>
-      <c r="H219" t="s">
-        <v>13</v>
       </c>
       <c r="I219" t="s">
         <v>412</v>
@@ -8688,7 +8689,7 @@
         <v>30.57750786</v>
       </c>
       <c r="D220" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E220">
         <v>1000</v>
@@ -8697,13 +8698,13 @@
         <v>333</v>
       </c>
       <c r="G220" t="s">
+        <v>11</v>
+      </c>
+      <c r="H220" t="s">
         <v>12</v>
       </c>
-      <c r="H220" t="s">
-        <v>13</v>
-      </c>
       <c r="I220" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -8717,7 +8718,7 @@
         <v>30.44273291</v>
       </c>
       <c r="D221" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E221">
         <v>1000</v>
@@ -8726,13 +8727,13 @@
         <v>333</v>
       </c>
       <c r="G221" t="s">
+        <v>11</v>
+      </c>
+      <c r="H221" t="s">
         <v>12</v>
       </c>
-      <c r="H221" t="s">
-        <v>13</v>
-      </c>
       <c r="I221" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -8746,7 +8747,7 @@
         <v>30.18205224</v>
       </c>
       <c r="D222" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E222">
         <v>1000</v>
@@ -8755,10 +8756,10 @@
         <v>333</v>
       </c>
       <c r="G222" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H222" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I222" t="s">
         <v>416</v>
@@ -8775,7 +8776,7 @@
         <v>29.68902482</v>
       </c>
       <c r="D223" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E223">
         <v>1000</v>
@@ -8784,10 +8785,10 @@
         <v>333</v>
       </c>
       <c r="G223" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H223" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I223" t="s">
         <v>418</v>
@@ -8804,7 +8805,7 @@
         <v>30.28214664</v>
       </c>
       <c r="D224" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E224">
         <v>1000</v>
@@ -8813,10 +8814,10 @@
         <v>333</v>
       </c>
       <c r="G224" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H224" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I224" t="s">
         <v>218</v>
@@ -8833,7 +8834,7 @@
         <v>45.61202328</v>
       </c>
       <c r="D225" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E225">
         <v>1000</v>
@@ -8862,7 +8863,7 @@
         <v>29.35351351</v>
       </c>
       <c r="D226" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E226">
         <v>1000</v>
@@ -8891,7 +8892,7 @@
         <v>43.85822815</v>
       </c>
       <c r="D227" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E227">
         <v>1000</v>
@@ -8900,10 +8901,10 @@
         <v>333</v>
       </c>
       <c r="G227" t="s">
+        <v>119</v>
+      </c>
+      <c r="H227" t="s">
         <v>120</v>
-      </c>
-      <c r="H227" t="s">
-        <v>121</v>
       </c>
       <c r="I227" t="s">
         <v>426</v>
@@ -8920,7 +8921,7 @@
         <v>28.91371696</v>
       </c>
       <c r="D228" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E228">
         <v>1000</v>
@@ -8949,7 +8950,7 @@
         <v>31.17914216</v>
       </c>
       <c r="D229" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E229">
         <v>1000</v>
@@ -8987,13 +8988,13 @@
         <v>333</v>
       </c>
       <c r="G230" t="s">
+        <v>11</v>
+      </c>
+      <c r="H230" t="s">
         <v>12</v>
       </c>
-      <c r="H230" t="s">
-        <v>13</v>
-      </c>
       <c r="I230" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
